--- a/templates/template.xlsx
+++ b/templates/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abelm\Programacion\generador_planillas\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFDC85A-CDA1-480A-A2BC-A5AAD2DC8308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328CE5C9-823C-42EE-84DE-3DCD833385E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Listado" sheetId="11" r:id="rId1"/>
@@ -2723,7 +2723,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="340">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -2995,13 +2995,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="96" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3244,24 +3238,12 @@
     <xf numFmtId="49" fontId="42" fillId="2" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="41" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="41" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="40" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="40" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="40" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="40" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3277,6 +3259,108 @@
     <xf numFmtId="49" fontId="40" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3298,39 +3382,65 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3340,18 +3450,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3485,150 +3611,18 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="86" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4032,492 +4026,496 @@
   </sheetPr>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="G5" sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="181" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.7109375" style="181" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="181" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="181" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="181" customWidth="1"/>
-    <col min="7" max="7" width="90.7109375" style="181" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="181"/>
-    <col min="10" max="10" width="14.42578125" style="181" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="181"/>
+    <col min="1" max="1" width="3.85546875" style="179" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.7109375" style="179" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="179" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="179" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="179" customWidth="1"/>
+    <col min="7" max="7" width="90.7109375" style="179" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="179"/>
+    <col min="10" max="10" width="14.42578125" style="179" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="179"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="323" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="184"/>
+      <c r="B1" s="215" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="332"/>
-      <c r="D1" s="332"/>
-      <c r="E1" s="333"/>
-      <c r="F1" s="324" t="s">
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="216" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="325"/>
-      <c r="H1" s="323"/>
-      <c r="I1" s="329"/>
-      <c r="J1" s="329"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="323" t="s">
+      <c r="G1" s="225"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="184"/>
+      <c r="B2" s="215" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="326"/>
-      <c r="D2" s="326"/>
-      <c r="E2" s="326"/>
-      <c r="F2" s="326" t="s">
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="217" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="325"/>
-      <c r="H2" s="323"/>
-      <c r="I2" s="329"/>
-      <c r="J2" s="329"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="323" t="s">
+      <c r="G2" s="225"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="184"/>
+      <c r="B3" s="215" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="326"/>
-      <c r="F3" s="326" t="s">
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="217" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="327"/>
-      <c r="H3" s="323"/>
-      <c r="I3" s="329"/>
-      <c r="J3" s="329"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="323" t="s">
+      <c r="G3" s="335"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="184"/>
+      <c r="B4" s="215" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="332"/>
-      <c r="D4" s="327"/>
-      <c r="E4" s="326"/>
-      <c r="F4" s="326" t="s">
+      <c r="C4" s="219"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="217" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="328"/>
-      <c r="H4" s="323"/>
-      <c r="I4" s="329"/>
-      <c r="J4" s="329"/>
+      <c r="G4" s="337"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="232"/>
+      <c r="J4" s="232"/>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="186"/>
-      <c r="B5" s="323" t="s">
+      <c r="A5" s="184"/>
+      <c r="B5" s="215" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="334"/>
-      <c r="D5" s="334"/>
-      <c r="E5" s="326"/>
-      <c r="F5" s="326" t="s">
+      <c r="C5" s="338"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="219"/>
+      <c r="F5" s="217" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="322"/>
+      <c r="G5" s="339"/>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="186"/>
-      <c r="B6" s="323"/>
-      <c r="C6" s="331"/>
-      <c r="D6" s="331"/>
-      <c r="E6" s="326"/>
-      <c r="F6" s="321"/>
+      <c r="A6" s="184"/>
+      <c r="B6" s="215"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="214"/>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="330" t="s">
+      <c r="A7" s="231" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="330"/>
-      <c r="C7" s="330"/>
-      <c r="D7" s="330"/>
-      <c r="E7" s="330"/>
-      <c r="F7" s="330"/>
-      <c r="G7" s="330"/>
-    </row>
-    <row r="8" spans="1:10" s="184" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185" t="s">
+      <c r="B7" s="231"/>
+      <c r="C7" s="231"/>
+      <c r="D7" s="231"/>
+      <c r="E7" s="231"/>
+      <c r="F7" s="231"/>
+      <c r="G7" s="231"/>
+    </row>
+    <row r="8" spans="1:10" s="182" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="191" t="s">
+      <c r="B8" s="189" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="189" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="191" t="s">
+      <c r="D8" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="191" t="s">
+      <c r="E8" s="189" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="191" t="s">
+      <c r="F8" s="189" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="191" t="s">
+      <c r="G8" s="189" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="187">
+    <row r="9" spans="1:10" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="185">
         <v>1</v>
       </c>
-      <c r="B9" s="202"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="335"/>
-      <c r="F9" s="335"/>
-      <c r="G9" s="200"/>
-    </row>
-    <row r="10" spans="1:10" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="188">
+      <c r="B9" s="196"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="194"/>
+    </row>
+    <row r="10" spans="1:10" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="186">
         <v>2</v>
       </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="336"/>
-      <c r="F10" s="336"/>
-      <c r="G10" s="194"/>
-    </row>
-    <row r="11" spans="1:10" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="189">
+      <c r="B10" s="191"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="190"/>
+    </row>
+    <row r="11" spans="1:10" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="187">
         <v>3</v>
       </c>
-      <c r="B11" s="196"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="336"/>
-      <c r="F11" s="336"/>
-      <c r="G11" s="194"/>
-    </row>
-    <row r="12" spans="1:10" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="188">
+      <c r="B11" s="191"/>
+      <c r="C11" s="191"/>
+      <c r="D11" s="221"/>
+      <c r="E11" s="221"/>
+      <c r="F11" s="221"/>
+      <c r="G11" s="190"/>
+    </row>
+    <row r="12" spans="1:10" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="186">
         <v>4</v>
       </c>
-      <c r="B12" s="196"/>
-      <c r="C12" s="196"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="336"/>
-      <c r="F12" s="336"/>
-      <c r="G12" s="194"/>
-    </row>
-    <row r="13" spans="1:10" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="189">
+      <c r="B12" s="191"/>
+      <c r="C12" s="191"/>
+      <c r="D12" s="221"/>
+      <c r="E12" s="221"/>
+      <c r="F12" s="221"/>
+      <c r="G12" s="190"/>
+    </row>
+    <row r="13" spans="1:10" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="187">
         <v>5</v>
       </c>
-      <c r="B13" s="196"/>
-      <c r="C13" s="196"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="336"/>
-      <c r="F13" s="336"/>
-      <c r="G13" s="194"/>
-    </row>
-    <row r="14" spans="1:10" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="188">
+      <c r="B13" s="191"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="221"/>
+      <c r="E13" s="221"/>
+      <c r="F13" s="221"/>
+      <c r="G13" s="190"/>
+    </row>
+    <row r="14" spans="1:10" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="186">
         <v>6</v>
       </c>
-      <c r="B14" s="196"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="336"/>
-      <c r="F14" s="336"/>
-      <c r="G14" s="194"/>
-    </row>
-    <row r="15" spans="1:10" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="189">
+      <c r="B14" s="191"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="221"/>
+      <c r="E14" s="221"/>
+      <c r="F14" s="221"/>
+      <c r="G14" s="190"/>
+    </row>
+    <row r="15" spans="1:10" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="187">
         <v>7</v>
       </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="336"/>
-      <c r="F15" s="336"/>
-      <c r="G15" s="194"/>
-    </row>
-    <row r="16" spans="1:10" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="188">
+      <c r="B15" s="191"/>
+      <c r="C15" s="191"/>
+      <c r="D15" s="221"/>
+      <c r="E15" s="221"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="190"/>
+    </row>
+    <row r="16" spans="1:10" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="186">
         <v>8</v>
       </c>
-      <c r="B16" s="196"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="336"/>
-      <c r="F16" s="336"/>
-      <c r="G16" s="194"/>
-    </row>
-    <row r="17" spans="1:7" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="189">
+      <c r="B16" s="191"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="221"/>
+      <c r="E16" s="221"/>
+      <c r="F16" s="221"/>
+      <c r="G16" s="190"/>
+    </row>
+    <row r="17" spans="1:7" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="187">
         <v>9</v>
       </c>
-      <c r="B17" s="196"/>
-      <c r="C17" s="196"/>
-      <c r="D17" s="193"/>
-      <c r="E17" s="336"/>
-      <c r="F17" s="336"/>
-      <c r="G17" s="194"/>
-    </row>
-    <row r="18" spans="1:7" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="188">
+      <c r="B17" s="191"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="221"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="190"/>
+    </row>
+    <row r="18" spans="1:7" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="186">
         <v>10</v>
       </c>
-      <c r="B18" s="196"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="336"/>
-      <c r="F18" s="336"/>
-      <c r="G18" s="194"/>
-    </row>
-    <row r="19" spans="1:7" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="189">
+      <c r="B18" s="191"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="221"/>
+      <c r="E18" s="221"/>
+      <c r="F18" s="221"/>
+      <c r="G18" s="190"/>
+    </row>
+    <row r="19" spans="1:7" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="187">
         <v>11</v>
       </c>
-      <c r="B19" s="196"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="193"/>
-      <c r="E19" s="336"/>
-      <c r="F19" s="336"/>
-      <c r="G19" s="194"/>
-    </row>
-    <row r="20" spans="1:7" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="188">
+      <c r="B19" s="191"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="221"/>
+      <c r="E19" s="221"/>
+      <c r="F19" s="221"/>
+      <c r="G19" s="190"/>
+    </row>
+    <row r="20" spans="1:7" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="186">
         <v>12</v>
       </c>
-      <c r="B20" s="196"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="336"/>
-      <c r="F20" s="336"/>
-      <c r="G20" s="194"/>
-    </row>
-    <row r="21" spans="1:7" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="189">
+      <c r="B20" s="191"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="221"/>
+      <c r="E20" s="221"/>
+      <c r="F20" s="221"/>
+      <c r="G20" s="190"/>
+    </row>
+    <row r="21" spans="1:7" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="187">
         <v>13</v>
       </c>
-      <c r="B21" s="196"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="336"/>
-      <c r="F21" s="336"/>
-      <c r="G21" s="194"/>
-    </row>
-    <row r="22" spans="1:7" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="188">
+      <c r="B21" s="191"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="221"/>
+      <c r="E21" s="221"/>
+      <c r="F21" s="221"/>
+      <c r="G21" s="190"/>
+    </row>
+    <row r="22" spans="1:7" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="186">
         <v>14</v>
       </c>
-      <c r="B22" s="196"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="336"/>
-      <c r="F22" s="336"/>
-      <c r="G22" s="194"/>
-    </row>
-    <row r="23" spans="1:7" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="189">
+      <c r="B22" s="191"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="221"/>
+      <c r="E22" s="221"/>
+      <c r="F22" s="221"/>
+      <c r="G22" s="190"/>
+    </row>
+    <row r="23" spans="1:7" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="187">
         <v>15</v>
       </c>
-      <c r="B23" s="196"/>
-      <c r="C23" s="196"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="336"/>
-      <c r="F23" s="336"/>
-      <c r="G23" s="194"/>
-    </row>
-    <row r="24" spans="1:7" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="188">
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="221"/>
+      <c r="E23" s="221"/>
+      <c r="F23" s="221"/>
+      <c r="G23" s="190"/>
+    </row>
+    <row r="24" spans="1:7" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="186">
         <v>16</v>
       </c>
-      <c r="B24" s="196"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="193"/>
-      <c r="E24" s="336"/>
-      <c r="F24" s="336"/>
-      <c r="G24" s="194"/>
-    </row>
-    <row r="25" spans="1:7" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="189">
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="221"/>
+      <c r="E24" s="221"/>
+      <c r="F24" s="221"/>
+      <c r="G24" s="190"/>
+    </row>
+    <row r="25" spans="1:7" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="187">
         <v>17</v>
       </c>
-      <c r="B25" s="196"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="193"/>
-      <c r="E25" s="336"/>
-      <c r="F25" s="336"/>
-      <c r="G25" s="194"/>
-    </row>
-    <row r="26" spans="1:7" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="188">
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="221"/>
+      <c r="E25" s="221"/>
+      <c r="F25" s="221"/>
+      <c r="G25" s="190"/>
+    </row>
+    <row r="26" spans="1:7" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="186">
         <v>18</v>
       </c>
-      <c r="B26" s="196"/>
-      <c r="C26" s="196"/>
-      <c r="D26" s="193"/>
-      <c r="E26" s="336"/>
-      <c r="F26" s="336"/>
-      <c r="G26" s="194"/>
-    </row>
-    <row r="27" spans="1:7" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="189">
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="221"/>
+      <c r="E26" s="221"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="190"/>
+    </row>
+    <row r="27" spans="1:7" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="187">
         <v>19</v>
       </c>
-      <c r="B27" s="196"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="193"/>
-      <c r="E27" s="336"/>
-      <c r="F27" s="336"/>
-      <c r="G27" s="194"/>
-    </row>
-    <row r="28" spans="1:7" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="188">
+      <c r="B27" s="191"/>
+      <c r="C27" s="191"/>
+      <c r="D27" s="221"/>
+      <c r="E27" s="221"/>
+      <c r="F27" s="221"/>
+      <c r="G27" s="190"/>
+    </row>
+    <row r="28" spans="1:7" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="186">
         <v>20</v>
       </c>
-      <c r="B28" s="196"/>
-      <c r="C28" s="196"/>
-      <c r="D28" s="193"/>
-      <c r="E28" s="336"/>
-      <c r="F28" s="336"/>
-      <c r="G28" s="194"/>
-    </row>
-    <row r="29" spans="1:7" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="189">
+      <c r="B28" s="191"/>
+      <c r="C28" s="191"/>
+      <c r="D28" s="221"/>
+      <c r="E28" s="221"/>
+      <c r="F28" s="221"/>
+      <c r="G28" s="190"/>
+    </row>
+    <row r="29" spans="1:7" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="187">
         <v>21</v>
       </c>
-      <c r="B29" s="196"/>
-      <c r="C29" s="196"/>
-      <c r="D29" s="193"/>
-      <c r="E29" s="336"/>
-      <c r="F29" s="336"/>
-      <c r="G29" s="194"/>
-    </row>
-    <row r="30" spans="1:7" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="188">
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="221"/>
+      <c r="E29" s="221"/>
+      <c r="F29" s="221"/>
+      <c r="G29" s="190"/>
+    </row>
+    <row r="30" spans="1:7" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="186">
         <v>22</v>
       </c>
-      <c r="B30" s="196"/>
-      <c r="C30" s="196"/>
-      <c r="D30" s="193"/>
-      <c r="E30" s="336"/>
-      <c r="F30" s="336"/>
-      <c r="G30" s="194"/>
-    </row>
-    <row r="31" spans="1:7" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="189">
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="221"/>
+      <c r="E30" s="221"/>
+      <c r="F30" s="221"/>
+      <c r="G30" s="190"/>
+    </row>
+    <row r="31" spans="1:7" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="187">
         <v>23</v>
       </c>
-      <c r="B31" s="196"/>
-      <c r="C31" s="196"/>
-      <c r="D31" s="193"/>
-      <c r="E31" s="336"/>
-      <c r="F31" s="336"/>
-      <c r="G31" s="194"/>
-    </row>
-    <row r="32" spans="1:7" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="188">
+      <c r="B31" s="191"/>
+      <c r="C31" s="191"/>
+      <c r="D31" s="221"/>
+      <c r="E31" s="221"/>
+      <c r="F31" s="221"/>
+      <c r="G31" s="190"/>
+    </row>
+    <row r="32" spans="1:7" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="186">
         <v>24</v>
       </c>
-      <c r="B32" s="196"/>
-      <c r="C32" s="196"/>
-      <c r="D32" s="193"/>
-      <c r="E32" s="336"/>
-      <c r="F32" s="336"/>
-      <c r="G32" s="194"/>
-    </row>
-    <row r="33" spans="1:7" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="189">
+      <c r="B32" s="191"/>
+      <c r="C32" s="191"/>
+      <c r="D32" s="221"/>
+      <c r="E32" s="221"/>
+      <c r="F32" s="221"/>
+      <c r="G32" s="190"/>
+    </row>
+    <row r="33" spans="1:7" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="187">
         <v>25</v>
       </c>
-      <c r="B33" s="196"/>
-      <c r="C33" s="196"/>
-      <c r="D33" s="193"/>
-      <c r="E33" s="336"/>
-      <c r="F33" s="336"/>
-      <c r="G33" s="194"/>
-    </row>
-    <row r="34" spans="1:7" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="189">
+      <c r="B33" s="191"/>
+      <c r="C33" s="191"/>
+      <c r="D33" s="221"/>
+      <c r="E33" s="221"/>
+      <c r="F33" s="221"/>
+      <c r="G33" s="190"/>
+    </row>
+    <row r="34" spans="1:7" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="187">
         <v>26</v>
       </c>
-      <c r="B34" s="196"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="193"/>
-      <c r="E34" s="336"/>
-      <c r="F34" s="336"/>
-      <c r="G34" s="194"/>
-    </row>
-    <row r="35" spans="1:7" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="188">
+      <c r="B34" s="191"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="221"/>
+      <c r="E34" s="221"/>
+      <c r="F34" s="221"/>
+      <c r="G34" s="190"/>
+    </row>
+    <row r="35" spans="1:7" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="186">
         <v>27</v>
       </c>
-      <c r="B35" s="196"/>
-      <c r="C35" s="196"/>
-      <c r="D35" s="193"/>
-      <c r="E35" s="336"/>
-      <c r="F35" s="336"/>
-      <c r="G35" s="194"/>
-    </row>
-    <row r="36" spans="1:7" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="189">
+      <c r="B35" s="191"/>
+      <c r="C35" s="191"/>
+      <c r="D35" s="221"/>
+      <c r="E35" s="221"/>
+      <c r="F35" s="221"/>
+      <c r="G35" s="190"/>
+    </row>
+    <row r="36" spans="1:7" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="187">
         <v>28</v>
       </c>
-      <c r="B36" s="196"/>
-      <c r="C36" s="196"/>
-      <c r="D36" s="193"/>
-      <c r="E36" s="336"/>
-      <c r="F36" s="336"/>
-      <c r="G36" s="194"/>
-    </row>
-    <row r="37" spans="1:7" s="184" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="189">
+      <c r="B36" s="191"/>
+      <c r="C36" s="191"/>
+      <c r="D36" s="221"/>
+      <c r="E36" s="221"/>
+      <c r="F36" s="221"/>
+      <c r="G36" s="190"/>
+    </row>
+    <row r="37" spans="1:7" s="182" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="187">
         <v>29</v>
       </c>
-      <c r="B37" s="196"/>
-      <c r="C37" s="196"/>
-      <c r="D37" s="195"/>
-      <c r="E37" s="336"/>
-      <c r="F37" s="336"/>
-      <c r="G37" s="194"/>
-    </row>
-    <row r="38" spans="1:7" s="184" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="190">
+      <c r="B37" s="191"/>
+      <c r="C37" s="191"/>
+      <c r="D37" s="229"/>
+      <c r="E37" s="221"/>
+      <c r="F37" s="221"/>
+      <c r="G37" s="190"/>
+    </row>
+    <row r="38" spans="1:7" s="182" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="188">
         <v>30</v>
       </c>
-      <c r="B38" s="198"/>
-      <c r="C38" s="198"/>
-      <c r="D38" s="197"/>
-      <c r="E38" s="337"/>
-      <c r="F38" s="337"/>
-      <c r="G38" s="201"/>
+      <c r="B38" s="192"/>
+      <c r="C38" s="192"/>
+      <c r="D38" s="230"/>
+      <c r="E38" s="222"/>
+      <c r="F38" s="222"/>
+      <c r="G38" s="195"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G39" s="183"/>
+      <c r="G39" s="181"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="182"/>
-      <c r="B40" s="182"/>
-      <c r="C40" s="182"/>
-      <c r="D40" s="182"/>
-      <c r="G40" s="183"/>
+      <c r="A40" s="180"/>
+      <c r="B40" s="180"/>
+      <c r="C40" s="180"/>
+      <c r="D40" s="180"/>
+      <c r="G40" s="181"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E41" s="182"/>
-      <c r="F41" s="182"/>
-      <c r="G41" s="182"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="180"/>
+      <c r="G41" s="180"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E42" s="182"/>
-      <c r="F42" s="182"/>
-      <c r="G42" s="182"/>
+      <c r="E42" s="180"/>
+      <c r="F42" s="180"/>
+      <c r="G42" s="180"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E43" s="182"/>
-      <c r="F43" s="182"/>
-      <c r="G43" s="182"/>
+      <c r="E43" s="180"/>
+      <c r="F43" s="180"/>
+      <c r="G43" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4540,8 +4538,8 @@
   </sheetPr>
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5068,16 +5066,16 @@
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
-      <c r="G1" s="203" t="s">
+      <c r="G1" s="233" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="204"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="233"/>
+      <c r="M1" s="233"/>
+      <c r="N1" s="234"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="83"/>
@@ -5086,14 +5084,14 @@
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="206"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="236"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37"/>
@@ -5102,14 +5100,14 @@
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="206"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="236"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
@@ -5128,13 +5126,13 @@
       <c r="N4" s="39"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="207" t="s">
+      <c r="A5" s="237" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="208"/>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
+      <c r="B5" s="238"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
       <c r="H5" s="41"/>
@@ -5146,21 +5144,21 @@
       <c r="N5" s="43"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="207" t="s">
+      <c r="A6" s="237" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="208"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="208"/>
+      <c r="B6" s="238"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
       <c r="J6" s="41"/>
       <c r="K6" s="42"/>
-      <c r="L6" s="208"/>
-      <c r="M6" s="208"/>
+      <c r="L6" s="238"/>
+      <c r="M6" s="238"/>
       <c r="N6" s="43"/>
     </row>
     <row r="7" spans="1:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
@@ -5183,7 +5181,7 @@
       <c r="A8" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="342"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
@@ -5201,7 +5199,7 @@
       <c r="A9" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="342"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="41"/>
       <c r="D9" s="41" t="s">
         <v>125</v>
@@ -5221,7 +5219,7 @@
       <c r="A10" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="343"/>
+      <c r="B10" s="224"/>
       <c r="C10" s="41"/>
       <c r="D10" s="41" t="s">
         <v>42</v>
@@ -5260,15 +5258,15 @@
       <c r="D12" s="41"/>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
-      <c r="H12" s="213" t="s">
+      <c r="H12" s="240" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="214"/>
-      <c r="J12" s="214"/>
-      <c r="K12" s="214"/>
-      <c r="L12" s="214"/>
-      <c r="M12" s="214"/>
-      <c r="N12" s="215"/>
+      <c r="I12" s="241"/>
+      <c r="J12" s="241"/>
+      <c r="K12" s="241"/>
+      <c r="L12" s="241"/>
+      <c r="M12" s="241"/>
+      <c r="N12" s="242"/>
     </row>
     <row r="13" spans="1:14" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
@@ -5278,623 +5276,623 @@
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
       <c r="G13" s="45"/>
-      <c r="H13" s="216"/>
-      <c r="I13" s="217"/>
-      <c r="J13" s="217"/>
-      <c r="K13" s="217"/>
-      <c r="L13" s="217"/>
-      <c r="M13" s="217"/>
-      <c r="N13" s="218"/>
+      <c r="H13" s="243"/>
+      <c r="I13" s="244"/>
+      <c r="J13" s="244"/>
+      <c r="K13" s="244"/>
+      <c r="L13" s="244"/>
+      <c r="M13" s="244"/>
+      <c r="N13" s="245"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="281" t="s">
+      <c r="A14" s="248" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="283" t="s">
+      <c r="B14" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="283" t="s">
+      <c r="C14" s="251" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="284" t="s">
+      <c r="D14" s="253" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="285"/>
-      <c r="F14" s="285"/>
-      <c r="G14" s="286" t="s">
+      <c r="E14" s="254"/>
+      <c r="F14" s="254"/>
+      <c r="G14" s="255" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="213" t="s">
+      <c r="H14" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="214"/>
-      <c r="J14" s="214"/>
-      <c r="K14" s="215"/>
-      <c r="L14" s="210" t="s">
+      <c r="I14" s="241"/>
+      <c r="J14" s="241"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="246" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="210" t="s">
+      <c r="M14" s="246" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="281" t="s">
+      <c r="N14" s="248" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="282"/>
-      <c r="B15" s="287"/>
-      <c r="C15" s="287"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="288" t="s">
+      <c r="A15" s="249"/>
+      <c r="B15" s="252"/>
+      <c r="C15" s="252"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="289"/>
-      <c r="G15" s="290"/>
-      <c r="H15" s="216"/>
-      <c r="I15" s="217"/>
-      <c r="J15" s="217"/>
-      <c r="K15" s="218"/>
-      <c r="L15" s="211"/>
-      <c r="M15" s="211"/>
-      <c r="N15" s="282"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="256"/>
+      <c r="H15" s="243"/>
+      <c r="I15" s="244"/>
+      <c r="J15" s="244"/>
+      <c r="K15" s="245"/>
+      <c r="L15" s="247"/>
+      <c r="M15" s="247"/>
+      <c r="N15" s="249"/>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="46">
         <v>1</v>
       </c>
-      <c r="B16" s="132"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="133"/>
       <c r="G16" s="47"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="157"/>
-      <c r="N16" s="157"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="155"/>
     </row>
     <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="48">
         <v>2</v>
       </c>
-      <c r="B17" s="136"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="137"/>
       <c r="G17" s="49"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="160"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="161"/>
-      <c r="N17" s="161"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="158"/>
+      <c r="L17" s="159"/>
+      <c r="M17" s="159"/>
+      <c r="N17" s="159"/>
     </row>
     <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="48">
         <v>3</v>
       </c>
-      <c r="B18" s="136"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="137"/>
       <c r="G18" s="49"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="160"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="159"/>
+      <c r="M18" s="159"/>
+      <c r="N18" s="159"/>
     </row>
     <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="48">
         <v>4</v>
       </c>
-      <c r="B19" s="136"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="49"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="160"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="161"/>
-      <c r="N19" s="161"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="159"/>
+      <c r="M19" s="159"/>
+      <c r="N19" s="159"/>
     </row>
     <row r="20" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="48">
         <v>5</v>
       </c>
-      <c r="B20" s="136"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="137"/>
       <c r="G20" s="49"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="159"/>
-      <c r="K20" s="159"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="157"/>
+      <c r="K20" s="157"/>
+      <c r="L20" s="159"/>
+      <c r="M20" s="159"/>
+      <c r="N20" s="159"/>
     </row>
     <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="48">
         <v>6</v>
       </c>
-      <c r="B21" s="136"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="49"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="159"/>
-      <c r="K21" s="160"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
-      <c r="N21" s="161"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="158"/>
+      <c r="L21" s="159"/>
+      <c r="M21" s="159"/>
+      <c r="N21" s="159"/>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="48">
         <v>7</v>
       </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="137"/>
       <c r="G22" s="49"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="159"/>
-      <c r="K22" s="160"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="159"/>
+      <c r="M22" s="159"/>
+      <c r="N22" s="159"/>
     </row>
     <row r="23" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="48">
         <v>8</v>
       </c>
-      <c r="B23" s="140"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="141"/>
       <c r="G23" s="49"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="164"/>
-      <c r="L23" s="165"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="165"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="162"/>
+      <c r="L23" s="163"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
     </row>
     <row r="24" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="48">
         <v>9</v>
       </c>
-      <c r="B24" s="136"/>
-      <c r="C24" s="137"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="137"/>
       <c r="G24" s="49"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="167"/>
-      <c r="K24" s="168"/>
-      <c r="L24" s="161"/>
-      <c r="M24" s="161"/>
-      <c r="N24" s="161"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="166"/>
+      <c r="L24" s="159"/>
+      <c r="M24" s="159"/>
+      <c r="N24" s="159"/>
     </row>
     <row r="25" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="48">
         <v>10</v>
       </c>
-      <c r="B25" s="136"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="137"/>
       <c r="G25" s="49"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="167"/>
-      <c r="K25" s="167"/>
-      <c r="L25" s="161"/>
-      <c r="M25" s="161"/>
-      <c r="N25" s="161"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="159"/>
+      <c r="M25" s="159"/>
+      <c r="N25" s="159"/>
     </row>
     <row r="26" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="48">
         <v>11</v>
       </c>
-      <c r="B26" s="136"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="137"/>
       <c r="G26" s="49"/>
-      <c r="H26" s="166"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="167"/>
-      <c r="K26" s="168"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="161"/>
-      <c r="N26" s="161"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="166"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="159"/>
+      <c r="N26" s="159"/>
     </row>
     <row r="27" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48">
         <v>12</v>
       </c>
-      <c r="B27" s="136"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="137"/>
       <c r="G27" s="49"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="167"/>
-      <c r="K27" s="168"/>
-      <c r="L27" s="161"/>
-      <c r="M27" s="161"/>
-      <c r="N27" s="161"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="166"/>
+      <c r="L27" s="159"/>
+      <c r="M27" s="159"/>
+      <c r="N27" s="159"/>
     </row>
     <row r="28" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="48">
         <v>13</v>
       </c>
-      <c r="B28" s="136"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="137"/>
       <c r="G28" s="49"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="168"/>
-      <c r="L28" s="161"/>
-      <c r="M28" s="161"/>
-      <c r="N28" s="161"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="166"/>
+      <c r="L28" s="159"/>
+      <c r="M28" s="159"/>
+      <c r="N28" s="159"/>
     </row>
     <row r="29" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="48">
         <v>14</v>
       </c>
-      <c r="B29" s="136"/>
-      <c r="C29" s="137"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="137"/>
       <c r="G29" s="49"/>
-      <c r="H29" s="166"/>
-      <c r="I29" s="167"/>
-      <c r="J29" s="167"/>
-      <c r="K29" s="168"/>
-      <c r="L29" s="161"/>
-      <c r="M29" s="161"/>
-      <c r="N29" s="161"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="166"/>
+      <c r="L29" s="159"/>
+      <c r="M29" s="159"/>
+      <c r="N29" s="159"/>
     </row>
     <row r="30" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="48">
         <v>15</v>
       </c>
-      <c r="B30" s="136"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="143"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="137"/>
       <c r="G30" s="49"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="167"/>
-      <c r="K30" s="168"/>
-      <c r="L30" s="161"/>
-      <c r="M30" s="161"/>
-      <c r="N30" s="161"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="166"/>
+      <c r="L30" s="159"/>
+      <c r="M30" s="159"/>
+      <c r="N30" s="159"/>
     </row>
     <row r="31" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="48">
         <v>16</v>
       </c>
-      <c r="B31" s="136"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="137"/>
       <c r="G31" s="49"/>
-      <c r="H31" s="166"/>
-      <c r="I31" s="167"/>
-      <c r="J31" s="167"/>
-      <c r="K31" s="168"/>
-      <c r="L31" s="161"/>
-      <c r="M31" s="161"/>
-      <c r="N31" s="161"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="166"/>
+      <c r="L31" s="159"/>
+      <c r="M31" s="159"/>
+      <c r="N31" s="159"/>
     </row>
     <row r="32" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="48">
         <v>17</v>
       </c>
-      <c r="B32" s="136"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="137"/>
       <c r="G32" s="49"/>
-      <c r="H32" s="166"/>
-      <c r="I32" s="167"/>
-      <c r="J32" s="167"/>
-      <c r="K32" s="168"/>
-      <c r="L32" s="161"/>
-      <c r="M32" s="161"/>
-      <c r="N32" s="161"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="166"/>
+      <c r="L32" s="159"/>
+      <c r="M32" s="159"/>
+      <c r="N32" s="159"/>
     </row>
     <row r="33" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="48">
         <v>18</v>
       </c>
-      <c r="B33" s="136"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="139"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="137"/>
       <c r="G33" s="49"/>
-      <c r="H33" s="166"/>
-      <c r="I33" s="167"/>
-      <c r="J33" s="167"/>
-      <c r="K33" s="168"/>
-      <c r="L33" s="161"/>
-      <c r="M33" s="161"/>
-      <c r="N33" s="161"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="166"/>
+      <c r="L33" s="159"/>
+      <c r="M33" s="159"/>
+      <c r="N33" s="159"/>
     </row>
     <row r="34" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="48">
         <v>19</v>
       </c>
-      <c r="B34" s="136"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="137"/>
       <c r="G34" s="49"/>
-      <c r="H34" s="166"/>
-      <c r="I34" s="167"/>
-      <c r="J34" s="167"/>
-      <c r="K34" s="168"/>
-      <c r="L34" s="161"/>
-      <c r="M34" s="161"/>
-      <c r="N34" s="161"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
+      <c r="K34" s="166"/>
+      <c r="L34" s="159"/>
+      <c r="M34" s="159"/>
+      <c r="N34" s="159"/>
     </row>
     <row r="35" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="48">
         <v>20</v>
       </c>
-      <c r="B35" s="136"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="137"/>
       <c r="G35" s="49"/>
-      <c r="H35" s="166"/>
-      <c r="I35" s="167"/>
-      <c r="J35" s="167"/>
-      <c r="K35" s="168"/>
-      <c r="L35" s="161"/>
-      <c r="M35" s="161"/>
-      <c r="N35" s="161"/>
+      <c r="H35" s="164"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="166"/>
+      <c r="L35" s="159"/>
+      <c r="M35" s="159"/>
+      <c r="N35" s="159"/>
     </row>
     <row r="36" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="48">
         <v>21</v>
       </c>
-      <c r="B36" s="148"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="145"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="145"/>
+      <c r="B36" s="146"/>
+      <c r="C36" s="142"/>
+      <c r="D36" s="143"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="143"/>
       <c r="G36" s="49"/>
-      <c r="H36" s="169"/>
-      <c r="I36" s="170"/>
-      <c r="J36" s="171"/>
-      <c r="K36" s="172"/>
-      <c r="L36" s="144"/>
-      <c r="M36" s="144"/>
-      <c r="N36" s="173"/>
+      <c r="H36" s="167"/>
+      <c r="I36" s="168"/>
+      <c r="J36" s="169"/>
+      <c r="K36" s="170"/>
+      <c r="L36" s="142"/>
+      <c r="M36" s="142"/>
+      <c r="N36" s="171"/>
     </row>
     <row r="37" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="48">
         <v>22</v>
       </c>
-      <c r="B37" s="149"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
       <c r="G37" s="49"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="159"/>
-      <c r="J37" s="160"/>
-      <c r="K37" s="174"/>
-      <c r="L37" s="146"/>
-      <c r="M37" s="146"/>
-      <c r="N37" s="175"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="158"/>
+      <c r="K37" s="172"/>
+      <c r="L37" s="144"/>
+      <c r="M37" s="144"/>
+      <c r="N37" s="173"/>
     </row>
     <row r="38" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="48">
         <v>23</v>
       </c>
-      <c r="B38" s="149"/>
-      <c r="C38" s="146"/>
-      <c r="D38" s="147"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
+      <c r="B38" s="147"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
       <c r="G38" s="49"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="159"/>
-      <c r="J38" s="160"/>
-      <c r="K38" s="174"/>
-      <c r="L38" s="146"/>
-      <c r="M38" s="146"/>
-      <c r="N38" s="175"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="158"/>
+      <c r="K38" s="172"/>
+      <c r="L38" s="144"/>
+      <c r="M38" s="144"/>
+      <c r="N38" s="173"/>
     </row>
     <row r="39" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="48">
         <v>24</v>
       </c>
-      <c r="B39" s="149"/>
-      <c r="C39" s="146"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
+      <c r="B39" s="147"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
       <c r="G39" s="49"/>
-      <c r="H39" s="158"/>
-      <c r="I39" s="159"/>
-      <c r="J39" s="160"/>
-      <c r="K39" s="174"/>
-      <c r="L39" s="146"/>
-      <c r="M39" s="146"/>
-      <c r="N39" s="175"/>
+      <c r="H39" s="156"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="158"/>
+      <c r="K39" s="172"/>
+      <c r="L39" s="144"/>
+      <c r="M39" s="144"/>
+      <c r="N39" s="173"/>
     </row>
     <row r="40" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="48">
         <v>24</v>
       </c>
-      <c r="B40" s="149"/>
-      <c r="C40" s="146"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
+      <c r="B40" s="147"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
       <c r="G40" s="49"/>
-      <c r="H40" s="158"/>
-      <c r="I40" s="159"/>
-      <c r="J40" s="160"/>
-      <c r="K40" s="174"/>
-      <c r="L40" s="146"/>
-      <c r="M40" s="146"/>
-      <c r="N40" s="175"/>
+      <c r="H40" s="156"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="158"/>
+      <c r="K40" s="172"/>
+      <c r="L40" s="144"/>
+      <c r="M40" s="144"/>
+      <c r="N40" s="173"/>
     </row>
     <row r="41" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="48">
         <v>25</v>
       </c>
-      <c r="B41" s="149"/>
-      <c r="C41" s="146"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
+      <c r="B41" s="147"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
       <c r="G41" s="49"/>
-      <c r="H41" s="158"/>
-      <c r="I41" s="159"/>
-      <c r="J41" s="160"/>
-      <c r="K41" s="174"/>
-      <c r="L41" s="146"/>
-      <c r="M41" s="146"/>
-      <c r="N41" s="175"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="157"/>
+      <c r="J41" s="158"/>
+      <c r="K41" s="172"/>
+      <c r="L41" s="144"/>
+      <c r="M41" s="144"/>
+      <c r="N41" s="173"/>
     </row>
     <row r="42" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="48">
         <v>26</v>
       </c>
-      <c r="B42" s="149"/>
-      <c r="C42" s="146"/>
-      <c r="D42" s="147"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
+      <c r="B42" s="147"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
       <c r="G42" s="49"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="159"/>
-      <c r="J42" s="160"/>
-      <c r="K42" s="174"/>
-      <c r="L42" s="146"/>
-      <c r="M42" s="146"/>
-      <c r="N42" s="175"/>
+      <c r="H42" s="156"/>
+      <c r="I42" s="157"/>
+      <c r="J42" s="158"/>
+      <c r="K42" s="172"/>
+      <c r="L42" s="144"/>
+      <c r="M42" s="144"/>
+      <c r="N42" s="173"/>
     </row>
     <row r="43" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="48">
         <v>27</v>
       </c>
-      <c r="B43" s="149"/>
-      <c r="C43" s="146"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
       <c r="G43" s="49"/>
-      <c r="H43" s="158"/>
-      <c r="I43" s="159"/>
-      <c r="J43" s="160"/>
-      <c r="K43" s="174"/>
-      <c r="L43" s="146"/>
-      <c r="M43" s="146"/>
-      <c r="N43" s="175"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="157"/>
+      <c r="J43" s="158"/>
+      <c r="K43" s="172"/>
+      <c r="L43" s="144"/>
+      <c r="M43" s="144"/>
+      <c r="N43" s="173"/>
     </row>
     <row r="44" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="48">
         <v>28</v>
       </c>
-      <c r="B44" s="149"/>
-      <c r="C44" s="146"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="147"/>
+      <c r="B44" s="147"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145"/>
       <c r="G44" s="49"/>
-      <c r="H44" s="158"/>
-      <c r="I44" s="159"/>
-      <c r="J44" s="160"/>
-      <c r="K44" s="174"/>
-      <c r="L44" s="146"/>
-      <c r="M44" s="146"/>
-      <c r="N44" s="175"/>
+      <c r="H44" s="156"/>
+      <c r="I44" s="157"/>
+      <c r="J44" s="158"/>
+      <c r="K44" s="172"/>
+      <c r="L44" s="144"/>
+      <c r="M44" s="144"/>
+      <c r="N44" s="173"/>
     </row>
     <row r="45" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="48">
         <v>29</v>
       </c>
-      <c r="B45" s="149"/>
-      <c r="C45" s="146"/>
-      <c r="D45" s="150"/>
-      <c r="E45" s="150"/>
-      <c r="F45" s="150"/>
+      <c r="B45" s="147"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="148"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="148"/>
       <c r="G45" s="49"/>
-      <c r="H45" s="158"/>
-      <c r="I45" s="159"/>
-      <c r="J45" s="160"/>
-      <c r="K45" s="174"/>
-      <c r="L45" s="146"/>
-      <c r="M45" s="146"/>
-      <c r="N45" s="175"/>
+      <c r="H45" s="156"/>
+      <c r="I45" s="157"/>
+      <c r="J45" s="158"/>
+      <c r="K45" s="172"/>
+      <c r="L45" s="144"/>
+      <c r="M45" s="144"/>
+      <c r="N45" s="173"/>
     </row>
     <row r="46" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="51">
         <v>30</v>
       </c>
-      <c r="B46" s="151"/>
-      <c r="C46" s="152"/>
-      <c r="D46" s="153"/>
-      <c r="E46" s="153"/>
-      <c r="F46" s="153"/>
+      <c r="B46" s="149"/>
+      <c r="C46" s="150"/>
+      <c r="D46" s="151"/>
+      <c r="E46" s="151"/>
+      <c r="F46" s="151"/>
       <c r="G46" s="52"/>
-      <c r="H46" s="176"/>
-      <c r="I46" s="177"/>
-      <c r="J46" s="178"/>
-      <c r="K46" s="179"/>
-      <c r="L46" s="152"/>
-      <c r="M46" s="152"/>
-      <c r="N46" s="180"/>
+      <c r="H46" s="174"/>
+      <c r="I46" s="175"/>
+      <c r="J46" s="176"/>
+      <c r="K46" s="177"/>
+      <c r="L46" s="150"/>
+      <c r="M46" s="150"/>
+      <c r="N46" s="178"/>
     </row>
     <row r="47" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="38"/>
@@ -5942,13 +5940,13 @@
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
-      <c r="H51" s="212"/>
-      <c r="I51" s="212"/>
-      <c r="J51" s="212"/>
-      <c r="K51" s="212"/>
-      <c r="L51" s="212"/>
-      <c r="M51" s="212"/>
-      <c r="N51" s="212"/>
+      <c r="H51" s="250"/>
+      <c r="I51" s="250"/>
+      <c r="J51" s="250"/>
+      <c r="K51" s="250"/>
+      <c r="L51" s="250"/>
+      <c r="M51" s="250"/>
+      <c r="N51" s="250"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A52" s="38"/>
@@ -5960,15 +5958,15 @@
       <c r="E52" s="38"/>
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
-      <c r="H52" s="209" t="s">
+      <c r="H52" s="239" t="s">
         <v>45</v>
       </c>
-      <c r="I52" s="209"/>
-      <c r="J52" s="209"/>
-      <c r="K52" s="209"/>
-      <c r="L52" s="209"/>
-      <c r="M52" s="209"/>
-      <c r="N52" s="209"/>
+      <c r="I52" s="239"/>
+      <c r="J52" s="239"/>
+      <c r="K52" s="239"/>
+      <c r="L52" s="239"/>
+      <c r="M52" s="239"/>
+      <c r="N52" s="239"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A53" s="38"/>
@@ -6010,8 +6008,8 @@
   </sheetPr>
   <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6038,34 +6036,24 @@
       <c r="B2" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="294"/>
-      <c r="G2" s="221" t="s">
+      <c r="C2" s="257"/>
+      <c r="D2" s="257"/>
+      <c r="E2" s="258"/>
+      <c r="G2" s="261" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="294"/>
-      <c r="I2" s="294"/>
-      <c r="J2" s="294"/>
-      <c r="K2" s="294"/>
-      <c r="L2" s="294"/>
-      <c r="M2" s="338"/>
-      <c r="N2" s="339"/>
-      <c r="O2" s="339"/>
-      <c r="P2" s="339"/>
-      <c r="Q2" s="339"/>
-      <c r="R2" s="339"/>
-      <c r="S2" s="339"/>
-      <c r="T2" s="339"/>
-      <c r="U2" s="339"/>
-      <c r="V2" s="339"/>
-      <c r="W2" s="339"/>
-      <c r="X2" s="221" t="s">
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="258"/>
+      <c r="L2" s="258"/>
+      <c r="M2" s="1"/>
+      <c r="X2" s="261" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="221"/>
-      <c r="Z2" s="221"/>
-      <c r="AA2" s="221"/>
+      <c r="Y2" s="261"/>
+      <c r="Z2" s="261"/>
+      <c r="AA2" s="261"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -6075,94 +6063,94 @@
       <c r="B3" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="295"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="221" t="s">
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="260"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="261" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="294"/>
-      <c r="I3" s="294"/>
-      <c r="J3" s="294"/>
-      <c r="K3" s="294"/>
-      <c r="L3" s="294"/>
-      <c r="M3" s="340"/>
-      <c r="N3" s="341"/>
-      <c r="O3" s="341"/>
-      <c r="P3" s="341"/>
-      <c r="Q3" s="341"/>
-      <c r="R3" s="341"/>
-      <c r="S3" s="341"/>
-      <c r="T3" s="341"/>
-      <c r="U3" s="341"/>
-      <c r="V3" s="341"/>
-      <c r="W3" s="341"/>
-      <c r="X3" s="222" t="s">
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="262" t="s">
         <v>126</v>
       </c>
-      <c r="Y3" s="222"/>
-      <c r="Z3" s="222"/>
-      <c r="AA3" s="222"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="262"/>
+      <c r="AA3" s="262"/>
       <c r="AB3" s="19"/>
       <c r="AC3" s="19"/>
       <c r="AD3" s="19"/>
       <c r="AE3" s="2"/>
     </row>
     <row r="4" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="286" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="233"/>
-      <c r="C4" s="233"/>
-      <c r="D4" s="233"/>
-      <c r="E4" s="233"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="224" t="s">
+      <c r="B4" s="287"/>
+      <c r="C4" s="287"/>
+      <c r="D4" s="287"/>
+      <c r="E4" s="287"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="266" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="297"/>
-      <c r="I4" s="297"/>
-      <c r="J4" s="297"/>
-      <c r="K4" s="297"/>
-      <c r="L4" s="297"/>
-      <c r="M4" s="297"/>
-      <c r="N4" s="297"/>
-      <c r="O4" s="297"/>
-      <c r="P4" s="297"/>
-      <c r="Q4" s="297"/>
-      <c r="R4" s="297"/>
-      <c r="S4" s="297"/>
-      <c r="T4" s="297"/>
-      <c r="U4" s="297"/>
-      <c r="V4" s="297"/>
-      <c r="W4" s="297"/>
-      <c r="X4" s="298"/>
-      <c r="Y4" s="224" t="s">
+      <c r="H4" s="267"/>
+      <c r="I4" s="267"/>
+      <c r="J4" s="267"/>
+      <c r="K4" s="267"/>
+      <c r="L4" s="267"/>
+      <c r="M4" s="267"/>
+      <c r="N4" s="267"/>
+      <c r="O4" s="267"/>
+      <c r="P4" s="267"/>
+      <c r="Q4" s="267"/>
+      <c r="R4" s="267"/>
+      <c r="S4" s="267"/>
+      <c r="T4" s="267"/>
+      <c r="U4" s="267"/>
+      <c r="V4" s="267"/>
+      <c r="W4" s="267"/>
+      <c r="X4" s="268"/>
+      <c r="Y4" s="266" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="297"/>
-      <c r="AA4" s="297"/>
-      <c r="AB4" s="297"/>
-      <c r="AC4" s="297"/>
-      <c r="AD4" s="297"/>
-      <c r="AE4" s="298"/>
-    </row>
-    <row r="5" spans="1:31" s="299" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="225" t="s">
+      <c r="Z4" s="267"/>
+      <c r="AA4" s="267"/>
+      <c r="AB4" s="267"/>
+      <c r="AC4" s="267"/>
+      <c r="AD4" s="267"/>
+      <c r="AE4" s="268"/>
+    </row>
+    <row r="5" spans="1:31" s="201" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="227" t="s">
+      <c r="B5" s="279" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="227" t="s">
+      <c r="C5" s="279" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="228" t="s">
+      <c r="D5" s="282" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="228"/>
-      <c r="F5" s="229"/>
+      <c r="E5" s="282"/>
+      <c r="F5" s="283"/>
       <c r="G5" s="94">
         <v>1</v>
       </c>
@@ -6217,82 +6205,82 @@
       <c r="X5" s="96">
         <v>18</v>
       </c>
-      <c r="Y5" s="226" t="s">
+      <c r="Y5" s="272" t="s">
         <v>9</v>
       </c>
-      <c r="Z5" s="297"/>
-      <c r="AA5" s="297"/>
-      <c r="AB5" s="298"/>
-      <c r="AC5" s="291" t="s">
+      <c r="Z5" s="267"/>
+      <c r="AA5" s="267"/>
+      <c r="AB5" s="268"/>
+      <c r="AC5" s="276" t="s">
         <v>44</v>
       </c>
-      <c r="AD5" s="223" t="s">
+      <c r="AD5" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="AE5" s="223" t="s">
+      <c r="AE5" s="263" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="299" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="300"/>
-      <c r="B6" s="301"/>
-      <c r="C6" s="301"/>
-      <c r="D6" s="230"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="302"/>
-      <c r="H6" s="303"/>
-      <c r="I6" s="303"/>
-      <c r="J6" s="303"/>
-      <c r="K6" s="303"/>
-      <c r="L6" s="303"/>
-      <c r="M6" s="303"/>
-      <c r="N6" s="303"/>
-      <c r="O6" s="303"/>
-      <c r="P6" s="303"/>
-      <c r="Q6" s="303"/>
-      <c r="R6" s="303"/>
-      <c r="S6" s="303"/>
-      <c r="T6" s="303"/>
-      <c r="U6" s="303"/>
-      <c r="V6" s="303"/>
-      <c r="W6" s="303"/>
-      <c r="X6" s="304"/>
-      <c r="Y6" s="305"/>
-      <c r="Z6" s="306"/>
-      <c r="AA6" s="306"/>
-      <c r="AB6" s="307"/>
-      <c r="AC6" s="292"/>
-      <c r="AD6" s="308"/>
-      <c r="AE6" s="308"/>
-    </row>
-    <row r="7" spans="1:31" s="299" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="309"/>
-      <c r="B7" s="310"/>
-      <c r="C7" s="310"/>
-      <c r="D7" s="311"/>
+    <row r="6" spans="1:31" s="201" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="270"/>
+      <c r="B6" s="280"/>
+      <c r="C6" s="280"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="284"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="203"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="203"/>
+      <c r="K6" s="203"/>
+      <c r="L6" s="203"/>
+      <c r="M6" s="203"/>
+      <c r="N6" s="203"/>
+      <c r="O6" s="203"/>
+      <c r="P6" s="203"/>
+      <c r="Q6" s="203"/>
+      <c r="R6" s="203"/>
+      <c r="S6" s="203"/>
+      <c r="T6" s="203"/>
+      <c r="U6" s="203"/>
+      <c r="V6" s="203"/>
+      <c r="W6" s="203"/>
+      <c r="X6" s="204"/>
+      <c r="Y6" s="273"/>
+      <c r="Z6" s="274"/>
+      <c r="AA6" s="274"/>
+      <c r="AB6" s="275"/>
+      <c r="AC6" s="277"/>
+      <c r="AD6" s="264"/>
+      <c r="AE6" s="264"/>
+    </row>
+    <row r="7" spans="1:31" s="201" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="271"/>
+      <c r="B7" s="281"/>
+      <c r="C7" s="281"/>
+      <c r="D7" s="205"/>
       <c r="E7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="312"/>
-      <c r="G7" s="313"/>
-      <c r="H7" s="314"/>
-      <c r="I7" s="314"/>
-      <c r="J7" s="314"/>
-      <c r="K7" s="314"/>
-      <c r="L7" s="314"/>
-      <c r="M7" s="314"/>
-      <c r="N7" s="314"/>
-      <c r="O7" s="314"/>
-      <c r="P7" s="314"/>
-      <c r="Q7" s="314"/>
-      <c r="R7" s="314"/>
-      <c r="S7" s="314"/>
-      <c r="T7" s="314"/>
-      <c r="U7" s="314"/>
-      <c r="V7" s="314"/>
-      <c r="W7" s="314"/>
-      <c r="X7" s="315"/>
+      <c r="F7" s="206"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="208"/>
+      <c r="L7" s="208"/>
+      <c r="M7" s="208"/>
+      <c r="N7" s="208"/>
+      <c r="O7" s="208"/>
+      <c r="P7" s="208"/>
+      <c r="Q7" s="208"/>
+      <c r="R7" s="208"/>
+      <c r="S7" s="208"/>
+      <c r="T7" s="208"/>
+      <c r="U7" s="208"/>
+      <c r="V7" s="208"/>
+      <c r="W7" s="208"/>
+      <c r="X7" s="209"/>
       <c r="Y7" s="97" t="s">
         <v>12</v>
       </c>
@@ -6305,19 +6293,19 @@
       <c r="AB7" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AC7" s="293"/>
-      <c r="AD7" s="316"/>
-      <c r="AE7" s="316"/>
+      <c r="AC7" s="278"/>
+      <c r="AD7" s="265"/>
+      <c r="AE7" s="265"/>
     </row>
     <row r="8" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="317">
+      <c r="A8" s="210">
         <v>1</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="103"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="106"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="105"/>
       <c r="G8" s="10"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -6345,13 +6333,13 @@
       <c r="AE8" s="24"/>
     </row>
     <row r="9" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="318">
+      <c r="A9" s="211">
         <v>2</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="107"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="20"/>
       <c r="G9" s="10"/>
       <c r="H9" s="12"/>
@@ -6380,13 +6368,13 @@
       <c r="AE9" s="24"/>
     </row>
     <row r="10" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="318">
+      <c r="A10" s="211">
         <v>3</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="107"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="20"/>
       <c r="G10" s="10"/>
       <c r="H10" s="12"/>
@@ -6415,13 +6403,13 @@
       <c r="AE10" s="24"/>
     </row>
     <row r="11" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="318">
+      <c r="A11" s="211">
         <v>4</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="107"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="20"/>
       <c r="G11" s="10"/>
       <c r="H11" s="12"/>
@@ -6450,13 +6438,13 @@
       <c r="AE11" s="24"/>
     </row>
     <row r="12" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="318">
+      <c r="A12" s="211">
         <v>5</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="107"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="20"/>
       <c r="G12" s="10"/>
       <c r="H12" s="12"/>
@@ -6485,13 +6473,13 @@
       <c r="AE12" s="24"/>
     </row>
     <row r="13" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="318">
+      <c r="A13" s="211">
         <v>6</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="107"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="20"/>
       <c r="G13" s="10"/>
       <c r="H13" s="12"/>
@@ -6520,13 +6508,13 @@
       <c r="AE13" s="24"/>
     </row>
     <row r="14" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="318">
+      <c r="A14" s="211">
         <v>7</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="107"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="20"/>
       <c r="G14" s="10"/>
       <c r="H14" s="12"/>
@@ -6555,13 +6543,13 @@
       <c r="AE14" s="24"/>
     </row>
     <row r="15" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="318">
+      <c r="A15" s="211">
         <v>8</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="107"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="20"/>
       <c r="G15" s="10"/>
       <c r="H15" s="12"/>
@@ -6590,13 +6578,13 @@
       <c r="AE15" s="24"/>
     </row>
     <row r="16" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="318">
+      <c r="A16" s="211">
         <v>9</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="107"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="20"/>
       <c r="G16" s="10"/>
       <c r="H16" s="12"/>
@@ -6625,13 +6613,13 @@
       <c r="AE16" s="24"/>
     </row>
     <row r="17" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="318">
+      <c r="A17" s="211">
         <v>10</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="107"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="20"/>
       <c r="G17" s="10"/>
       <c r="H17" s="12"/>
@@ -6660,13 +6648,13 @@
       <c r="AE17" s="24"/>
     </row>
     <row r="18" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="318">
+      <c r="A18" s="211">
         <v>11</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="107"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="20"/>
       <c r="G18" s="10"/>
       <c r="H18" s="12"/>
@@ -6695,13 +6683,13 @@
       <c r="AE18" s="24"/>
     </row>
     <row r="19" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="318">
+      <c r="A19" s="211">
         <v>12</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="107"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="20"/>
       <c r="G19" s="10"/>
       <c r="H19" s="12"/>
@@ -6730,13 +6718,13 @@
       <c r="AE19" s="24"/>
     </row>
     <row r="20" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="318">
+      <c r="A20" s="211">
         <v>13</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="107"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="20"/>
       <c r="G20" s="10"/>
       <c r="H20" s="12"/>
@@ -6765,13 +6753,13 @@
       <c r="AE20" s="24"/>
     </row>
     <row r="21" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="318">
+      <c r="A21" s="211">
         <v>14</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="107"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="20"/>
       <c r="G21" s="10"/>
       <c r="H21" s="12"/>
@@ -6800,13 +6788,13 @@
       <c r="AE21" s="24"/>
     </row>
     <row r="22" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="318">
+      <c r="A22" s="211">
         <v>15</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="107"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="20"/>
       <c r="G22" s="10"/>
       <c r="H22" s="12"/>
@@ -6835,13 +6823,13 @@
       <c r="AE22" s="24"/>
     </row>
     <row r="23" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="318">
+      <c r="A23" s="211">
         <v>16</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="107"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="20"/>
       <c r="G23" s="10"/>
       <c r="H23" s="12"/>
@@ -6870,13 +6858,13 @@
       <c r="AE23" s="24"/>
     </row>
     <row r="24" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="318">
+      <c r="A24" s="211">
         <v>17</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="107"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="20"/>
       <c r="G24" s="10"/>
       <c r="H24" s="12"/>
@@ -6905,13 +6893,13 @@
       <c r="AE24" s="24"/>
     </row>
     <row r="25" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="318">
+      <c r="A25" s="211">
         <v>18</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="107"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="20"/>
       <c r="G25" s="10"/>
       <c r="H25" s="12"/>
@@ -6940,13 +6928,13 @@
       <c r="AE25" s="24"/>
     </row>
     <row r="26" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="318">
+      <c r="A26" s="211">
         <v>19</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="107"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="20"/>
       <c r="G26" s="10"/>
       <c r="H26" s="12"/>
@@ -6975,13 +6963,13 @@
       <c r="AE26" s="24"/>
     </row>
     <row r="27" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="318">
+      <c r="A27" s="211">
         <v>20</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="107"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="20"/>
       <c r="G27" s="10"/>
       <c r="H27" s="12"/>
@@ -7010,13 +6998,13 @@
       <c r="AE27" s="24"/>
     </row>
     <row r="28" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="318">
+      <c r="A28" s="211">
         <v>21</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="107"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="20"/>
       <c r="G28" s="10"/>
       <c r="H28" s="12"/>
@@ -7045,13 +7033,13 @@
       <c r="AE28" s="24"/>
     </row>
     <row r="29" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="318">
+      <c r="A29" s="211">
         <v>22</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="227"/>
       <c r="F29" s="9"/>
       <c r="G29" s="10"/>
       <c r="H29" s="12"/>
@@ -7080,13 +7068,13 @@
       <c r="AE29" s="24"/>
     </row>
     <row r="30" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="318">
+      <c r="A30" s="211">
         <v>23</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="227"/>
       <c r="F30" s="9"/>
       <c r="G30" s="10"/>
       <c r="H30" s="12"/>
@@ -7115,13 +7103,13 @@
       <c r="AE30" s="24"/>
     </row>
     <row r="31" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="318">
+      <c r="A31" s="211">
         <v>24</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="227"/>
       <c r="F31" s="9"/>
       <c r="G31" s="10"/>
       <c r="H31" s="12"/>
@@ -7150,13 +7138,13 @@
       <c r="AE31" s="24"/>
     </row>
     <row r="32" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="318">
+      <c r="A32" s="211">
         <v>25</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="227"/>
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
       <c r="H32" s="12"/>
@@ -7185,13 +7173,13 @@
       <c r="AE32" s="24"/>
     </row>
     <row r="33" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="318">
+      <c r="A33" s="211">
         <v>26</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="227"/>
       <c r="F33" s="9"/>
       <c r="G33" s="10"/>
       <c r="H33" s="12"/>
@@ -7220,13 +7208,13 @@
       <c r="AE33" s="24"/>
     </row>
     <row r="34" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="318">
+      <c r="A34" s="211">
         <v>27</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
+      <c r="E34" s="227"/>
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
       <c r="H34" s="12"/>
@@ -7255,13 +7243,13 @@
       <c r="AE34" s="24"/>
     </row>
     <row r="35" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="318">
+      <c r="A35" s="211">
         <v>28</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
+      <c r="E35" s="227"/>
       <c r="F35" s="9"/>
       <c r="G35" s="10"/>
       <c r="H35" s="12"/>
@@ -7290,13 +7278,13 @@
       <c r="AE35" s="24"/>
     </row>
     <row r="36" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="318">
+      <c r="A36" s="211">
         <v>29</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="227"/>
       <c r="F36" s="9"/>
       <c r="G36" s="10"/>
       <c r="H36" s="12"/>
@@ -7325,13 +7313,13 @@
       <c r="AE36" s="24"/>
     </row>
     <row r="37" spans="1:31" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="319">
+      <c r="A37" s="212">
         <v>30</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="228"/>
       <c r="F37" s="13"/>
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
@@ -7361,7 +7349,7 @@
     </row>
     <row r="38" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="320" t="s">
+      <c r="B39" s="213" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -7447,31 +7435,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="289" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="289"/>
+      <c r="G1" s="289"/>
+      <c r="H1" s="289"/>
+      <c r="I1" s="289"/>
       <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="289" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
+      <c r="B2" s="289"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="289"/>
+      <c r="E2" s="289"/>
+      <c r="F2" s="289"/>
+      <c r="G2" s="289"/>
+      <c r="H2" s="289"/>
+      <c r="I2" s="289"/>
       <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7571,183 +7559,183 @@
       <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="113"/>
+      <c r="A8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="111"/>
       <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
+      <c r="A9" s="112"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="117"/>
       <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="114"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="120"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="118"/>
       <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="114"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="120"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="118"/>
       <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="114"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="120"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="118"/>
       <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="114"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="120"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="118"/>
       <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="114"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="120"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="118"/>
       <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="114"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="120"/>
+      <c r="A15" s="112"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="118"/>
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="114"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="120"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="118"/>
       <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="114"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="120"/>
+      <c r="A17" s="112"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="118"/>
       <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="123"/>
+      <c r="A18" s="112"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="121"/>
       <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="114"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="123"/>
+      <c r="A19" s="112"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="121"/>
       <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="114"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="123"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="121"/>
       <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:67" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="114"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="120"/>
+      <c r="A21" s="112"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="118"/>
       <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:67" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="114"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="120"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="118"/>
       <c r="J22" s="25"/>
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
@@ -7808,39 +7796,39 @@
       <c r="BO22" s="26"/>
     </row>
     <row r="23" spans="1:67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="114"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="120"/>
+      <c r="A23" s="112"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="118"/>
       <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="114"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="124"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="122"/>
       <c r="J24" s="25"/>
     </row>
     <row r="25" spans="1:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="125"/>
-      <c r="B25" s="126"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="130"/>
+      <c r="A25" s="123"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="128"/>
       <c r="J25" s="25"/>
     </row>
     <row r="26" spans="1:67" ht="15.75" x14ac:dyDescent="0.25">
@@ -10981,304 +10969,304 @@
       <c r="A3" s="53"/>
     </row>
     <row r="4" spans="1:11" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="305" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="251" t="s">
+      <c r="B4" s="305" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="251" t="s">
+      <c r="C4" s="305" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="251" t="s">
+      <c r="D4" s="305" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="251" t="s">
+      <c r="E4" s="305" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="255" t="s">
+      <c r="F4" s="309" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="251" t="s">
+      <c r="G4" s="310"/>
+      <c r="H4" s="305" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="251" t="s">
+      <c r="I4" s="305" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="251" t="s">
+      <c r="J4" s="305" t="s">
         <v>56</v>
       </c>
       <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="252"/>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
+      <c r="A5" s="306"/>
+      <c r="B5" s="306"/>
+      <c r="C5" s="306"/>
+      <c r="D5" s="306"/>
+      <c r="E5" s="306"/>
       <c r="F5" s="56" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="252"/>
+      <c r="H5" s="306"/>
+      <c r="I5" s="306"/>
+      <c r="J5" s="306"/>
       <c r="K5" s="55"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="253"/>
-      <c r="B6" s="254"/>
-      <c r="C6" s="254"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
-      <c r="G6" s="254"/>
-      <c r="H6" s="254"/>
-      <c r="I6" s="257"/>
-      <c r="J6" s="258"/>
+      <c r="A6" s="307"/>
+      <c r="B6" s="308"/>
+      <c r="C6" s="308"/>
+      <c r="D6" s="308"/>
+      <c r="E6" s="308"/>
+      <c r="F6" s="308"/>
+      <c r="G6" s="308"/>
+      <c r="H6" s="308"/>
+      <c r="I6" s="311"/>
+      <c r="J6" s="312"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="239"/>
-      <c r="B7" s="249"/>
-      <c r="C7" s="249"/>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="250"/>
+      <c r="A7" s="293"/>
+      <c r="B7" s="303"/>
+      <c r="C7" s="303"/>
+      <c r="D7" s="303"/>
+      <c r="E7" s="303"/>
+      <c r="F7" s="303"/>
+      <c r="G7" s="303"/>
+      <c r="H7" s="303"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="304"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="247"/>
-      <c r="B8" s="242"/>
-      <c r="C8" s="242"/>
-      <c r="D8" s="242"/>
-      <c r="E8" s="242"/>
-      <c r="F8" s="242"/>
-      <c r="G8" s="242"/>
-      <c r="H8" s="242"/>
-      <c r="I8" s="244"/>
-      <c r="J8" s="245"/>
+      <c r="A8" s="301"/>
+      <c r="B8" s="296"/>
+      <c r="C8" s="296"/>
+      <c r="D8" s="296"/>
+      <c r="E8" s="296"/>
+      <c r="F8" s="296"/>
+      <c r="G8" s="296"/>
+      <c r="H8" s="296"/>
+      <c r="I8" s="298"/>
+      <c r="J8" s="299"/>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="239"/>
-      <c r="B9" s="249"/>
-      <c r="C9" s="249"/>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="249"/>
-      <c r="J9" s="250"/>
+      <c r="A9" s="293"/>
+      <c r="B9" s="303"/>
+      <c r="C9" s="303"/>
+      <c r="D9" s="303"/>
+      <c r="E9" s="303"/>
+      <c r="F9" s="303"/>
+      <c r="G9" s="303"/>
+      <c r="H9" s="303"/>
+      <c r="I9" s="303"/>
+      <c r="J9" s="304"/>
     </row>
     <row r="10" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="247"/>
-      <c r="B10" s="242"/>
-      <c r="C10" s="242"/>
-      <c r="D10" s="242"/>
-      <c r="E10" s="242"/>
-      <c r="F10" s="242"/>
-      <c r="G10" s="242"/>
-      <c r="H10" s="242"/>
-      <c r="I10" s="244"/>
-      <c r="J10" s="245"/>
+      <c r="A10" s="301"/>
+      <c r="B10" s="296"/>
+      <c r="C10" s="296"/>
+      <c r="D10" s="296"/>
+      <c r="E10" s="296"/>
+      <c r="F10" s="296"/>
+      <c r="G10" s="296"/>
+      <c r="H10" s="296"/>
+      <c r="I10" s="298"/>
+      <c r="J10" s="299"/>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="239"/>
-      <c r="B11" s="249"/>
-      <c r="C11" s="249"/>
-      <c r="D11" s="249"/>
-      <c r="E11" s="249"/>
-      <c r="F11" s="249"/>
-      <c r="G11" s="249"/>
-      <c r="H11" s="249"/>
-      <c r="I11" s="249"/>
-      <c r="J11" s="250"/>
+      <c r="A11" s="293"/>
+      <c r="B11" s="303"/>
+      <c r="C11" s="303"/>
+      <c r="D11" s="303"/>
+      <c r="E11" s="303"/>
+      <c r="F11" s="303"/>
+      <c r="G11" s="303"/>
+      <c r="H11" s="303"/>
+      <c r="I11" s="303"/>
+      <c r="J11" s="304"/>
     </row>
     <row r="12" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="247"/>
-      <c r="B12" s="242"/>
-      <c r="C12" s="242"/>
-      <c r="D12" s="242"/>
-      <c r="E12" s="242"/>
-      <c r="F12" s="242"/>
-      <c r="G12" s="242"/>
-      <c r="H12" s="242"/>
-      <c r="I12" s="244"/>
-      <c r="J12" s="245"/>
+      <c r="A12" s="301"/>
+      <c r="B12" s="296"/>
+      <c r="C12" s="296"/>
+      <c r="D12" s="296"/>
+      <c r="E12" s="296"/>
+      <c r="F12" s="296"/>
+      <c r="G12" s="296"/>
+      <c r="H12" s="296"/>
+      <c r="I12" s="298"/>
+      <c r="J12" s="299"/>
     </row>
     <row r="13" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="239"/>
-      <c r="B13" s="249"/>
-      <c r="C13" s="249"/>
-      <c r="D13" s="249"/>
-      <c r="E13" s="249"/>
-      <c r="F13" s="249"/>
-      <c r="G13" s="249"/>
-      <c r="H13" s="249"/>
-      <c r="I13" s="249"/>
-      <c r="J13" s="250"/>
+      <c r="A13" s="293"/>
+      <c r="B13" s="303"/>
+      <c r="C13" s="303"/>
+      <c r="D13" s="303"/>
+      <c r="E13" s="303"/>
+      <c r="F13" s="303"/>
+      <c r="G13" s="303"/>
+      <c r="H13" s="303"/>
+      <c r="I13" s="303"/>
+      <c r="J13" s="304"/>
     </row>
     <row r="14" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="247"/>
-      <c r="B14" s="242"/>
-      <c r="C14" s="242"/>
-      <c r="D14" s="242"/>
-      <c r="E14" s="242"/>
-      <c r="F14" s="242"/>
-      <c r="G14" s="242"/>
-      <c r="H14" s="242"/>
-      <c r="I14" s="244"/>
-      <c r="J14" s="245"/>
+      <c r="A14" s="301"/>
+      <c r="B14" s="296"/>
+      <c r="C14" s="296"/>
+      <c r="D14" s="296"/>
+      <c r="E14" s="296"/>
+      <c r="F14" s="296"/>
+      <c r="G14" s="296"/>
+      <c r="H14" s="296"/>
+      <c r="I14" s="298"/>
+      <c r="J14" s="299"/>
     </row>
     <row r="15" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="239"/>
-      <c r="B15" s="249"/>
-      <c r="C15" s="249"/>
-      <c r="D15" s="249"/>
-      <c r="E15" s="249"/>
-      <c r="F15" s="249"/>
-      <c r="G15" s="249"/>
-      <c r="H15" s="249"/>
-      <c r="I15" s="249"/>
-      <c r="J15" s="250"/>
+      <c r="A15" s="293"/>
+      <c r="B15" s="303"/>
+      <c r="C15" s="303"/>
+      <c r="D15" s="303"/>
+      <c r="E15" s="303"/>
+      <c r="F15" s="303"/>
+      <c r="G15" s="303"/>
+      <c r="H15" s="303"/>
+      <c r="I15" s="303"/>
+      <c r="J15" s="304"/>
     </row>
     <row r="16" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="247"/>
-      <c r="B16" s="242"/>
-      <c r="C16" s="242"/>
-      <c r="D16" s="242"/>
-      <c r="E16" s="242"/>
-      <c r="F16" s="242"/>
-      <c r="G16" s="242"/>
-      <c r="H16" s="242"/>
-      <c r="I16" s="244"/>
-      <c r="J16" s="245"/>
+      <c r="A16" s="301"/>
+      <c r="B16" s="296"/>
+      <c r="C16" s="296"/>
+      <c r="D16" s="296"/>
+      <c r="E16" s="296"/>
+      <c r="F16" s="296"/>
+      <c r="G16" s="296"/>
+      <c r="H16" s="296"/>
+      <c r="I16" s="298"/>
+      <c r="J16" s="299"/>
     </row>
     <row r="17" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="239"/>
-      <c r="B17" s="249"/>
-      <c r="C17" s="249"/>
-      <c r="D17" s="249"/>
-      <c r="E17" s="249"/>
-      <c r="F17" s="249"/>
-      <c r="G17" s="249"/>
-      <c r="H17" s="249"/>
-      <c r="I17" s="249"/>
-      <c r="J17" s="250"/>
+      <c r="A17" s="293"/>
+      <c r="B17" s="303"/>
+      <c r="C17" s="303"/>
+      <c r="D17" s="303"/>
+      <c r="E17" s="303"/>
+      <c r="F17" s="303"/>
+      <c r="G17" s="303"/>
+      <c r="H17" s="303"/>
+      <c r="I17" s="303"/>
+      <c r="J17" s="304"/>
     </row>
     <row r="18" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="247"/>
-      <c r="B18" s="242"/>
-      <c r="C18" s="242"/>
-      <c r="D18" s="242"/>
-      <c r="E18" s="242"/>
-      <c r="F18" s="242"/>
-      <c r="G18" s="242"/>
-      <c r="H18" s="242"/>
-      <c r="I18" s="244"/>
-      <c r="J18" s="245"/>
+      <c r="A18" s="301"/>
+      <c r="B18" s="296"/>
+      <c r="C18" s="296"/>
+      <c r="D18" s="296"/>
+      <c r="E18" s="296"/>
+      <c r="F18" s="296"/>
+      <c r="G18" s="296"/>
+      <c r="H18" s="296"/>
+      <c r="I18" s="298"/>
+      <c r="J18" s="299"/>
     </row>
     <row r="19" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="239"/>
-      <c r="B19" s="249"/>
-      <c r="C19" s="249"/>
-      <c r="D19" s="249"/>
-      <c r="E19" s="249"/>
-      <c r="F19" s="249"/>
-      <c r="G19" s="249"/>
-      <c r="H19" s="249"/>
-      <c r="I19" s="249"/>
-      <c r="J19" s="250"/>
+      <c r="A19" s="293"/>
+      <c r="B19" s="303"/>
+      <c r="C19" s="303"/>
+      <c r="D19" s="303"/>
+      <c r="E19" s="303"/>
+      <c r="F19" s="303"/>
+      <c r="G19" s="303"/>
+      <c r="H19" s="303"/>
+      <c r="I19" s="303"/>
+      <c r="J19" s="304"/>
     </row>
     <row r="20" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="247"/>
-      <c r="B20" s="242"/>
-      <c r="C20" s="242"/>
-      <c r="D20" s="242"/>
-      <c r="E20" s="242"/>
-      <c r="F20" s="242"/>
-      <c r="G20" s="242"/>
-      <c r="H20" s="242"/>
-      <c r="I20" s="244"/>
-      <c r="J20" s="245"/>
+      <c r="A20" s="301"/>
+      <c r="B20" s="296"/>
+      <c r="C20" s="296"/>
+      <c r="D20" s="296"/>
+      <c r="E20" s="296"/>
+      <c r="F20" s="296"/>
+      <c r="G20" s="296"/>
+      <c r="H20" s="296"/>
+      <c r="I20" s="298"/>
+      <c r="J20" s="299"/>
     </row>
     <row r="21" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="239"/>
-      <c r="B21" s="249"/>
-      <c r="C21" s="249"/>
-      <c r="D21" s="249"/>
-      <c r="E21" s="249"/>
-      <c r="F21" s="249"/>
-      <c r="G21" s="249"/>
-      <c r="H21" s="249"/>
-      <c r="I21" s="249"/>
-      <c r="J21" s="250"/>
+      <c r="A21" s="293"/>
+      <c r="B21" s="303"/>
+      <c r="C21" s="303"/>
+      <c r="D21" s="303"/>
+      <c r="E21" s="303"/>
+      <c r="F21" s="303"/>
+      <c r="G21" s="303"/>
+      <c r="H21" s="303"/>
+      <c r="I21" s="303"/>
+      <c r="J21" s="304"/>
     </row>
     <row r="22" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="247"/>
-      <c r="B22" s="242"/>
-      <c r="C22" s="242"/>
-      <c r="D22" s="242"/>
-      <c r="E22" s="242"/>
-      <c r="F22" s="242"/>
-      <c r="G22" s="242"/>
-      <c r="H22" s="242"/>
-      <c r="I22" s="244"/>
-      <c r="J22" s="245"/>
+      <c r="A22" s="301"/>
+      <c r="B22" s="296"/>
+      <c r="C22" s="296"/>
+      <c r="D22" s="296"/>
+      <c r="E22" s="296"/>
+      <c r="F22" s="296"/>
+      <c r="G22" s="296"/>
+      <c r="H22" s="296"/>
+      <c r="I22" s="298"/>
+      <c r="J22" s="299"/>
     </row>
     <row r="23" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="239"/>
-      <c r="B23" s="249"/>
-      <c r="C23" s="249"/>
-      <c r="D23" s="249"/>
-      <c r="E23" s="249"/>
-      <c r="F23" s="249"/>
-      <c r="G23" s="249"/>
-      <c r="H23" s="249"/>
-      <c r="I23" s="249"/>
-      <c r="J23" s="250"/>
+      <c r="A23" s="293"/>
+      <c r="B23" s="303"/>
+      <c r="C23" s="303"/>
+      <c r="D23" s="303"/>
+      <c r="E23" s="303"/>
+      <c r="F23" s="303"/>
+      <c r="G23" s="303"/>
+      <c r="H23" s="303"/>
+      <c r="I23" s="303"/>
+      <c r="J23" s="304"/>
     </row>
     <row r="24" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="247"/>
-      <c r="B24" s="242"/>
-      <c r="C24" s="242"/>
-      <c r="D24" s="242"/>
-      <c r="E24" s="242"/>
-      <c r="F24" s="242"/>
-      <c r="G24" s="242"/>
-      <c r="H24" s="242"/>
-      <c r="I24" s="244"/>
-      <c r="J24" s="245"/>
+      <c r="A24" s="301"/>
+      <c r="B24" s="296"/>
+      <c r="C24" s="296"/>
+      <c r="D24" s="296"/>
+      <c r="E24" s="296"/>
+      <c r="F24" s="296"/>
+      <c r="G24" s="296"/>
+      <c r="H24" s="296"/>
+      <c r="I24" s="298"/>
+      <c r="J24" s="299"/>
     </row>
     <row r="25" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="239"/>
-      <c r="B25" s="249"/>
-      <c r="C25" s="249"/>
-      <c r="D25" s="249"/>
-      <c r="E25" s="249"/>
-      <c r="F25" s="249"/>
-      <c r="G25" s="249"/>
-      <c r="H25" s="249"/>
-      <c r="I25" s="249"/>
-      <c r="J25" s="250"/>
+      <c r="A25" s="293"/>
+      <c r="B25" s="303"/>
+      <c r="C25" s="303"/>
+      <c r="D25" s="303"/>
+      <c r="E25" s="303"/>
+      <c r="F25" s="303"/>
+      <c r="G25" s="303"/>
+      <c r="H25" s="303"/>
+      <c r="I25" s="303"/>
+      <c r="J25" s="304"/>
     </row>
     <row r="26" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="238"/>
-      <c r="B26" s="240"/>
-      <c r="C26" s="240"/>
-      <c r="D26" s="240"/>
-      <c r="E26" s="240"/>
-      <c r="F26" s="240"/>
-      <c r="G26" s="240"/>
-      <c r="H26" s="240"/>
-      <c r="I26" s="240"/>
-      <c r="J26" s="236"/>
+      <c r="A26" s="292"/>
+      <c r="B26" s="294"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="294"/>
+      <c r="E26" s="294"/>
+      <c r="F26" s="294"/>
+      <c r="G26" s="294"/>
+      <c r="H26" s="294"/>
+      <c r="I26" s="294"/>
+      <c r="J26" s="290"/>
       <c r="K26" s="57"/>
       <c r="L26" s="57"/>
       <c r="M26" s="57"/>
@@ -11295,16 +11283,16 @@
       <c r="X26" s="57"/>
     </row>
     <row r="27" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="239"/>
-      <c r="B27" s="241"/>
-      <c r="C27" s="241"/>
-      <c r="D27" s="241"/>
-      <c r="E27" s="241"/>
-      <c r="F27" s="241"/>
-      <c r="G27" s="241"/>
-      <c r="H27" s="241"/>
-      <c r="I27" s="241"/>
-      <c r="J27" s="237"/>
+      <c r="A27" s="293"/>
+      <c r="B27" s="295"/>
+      <c r="C27" s="295"/>
+      <c r="D27" s="295"/>
+      <c r="E27" s="295"/>
+      <c r="F27" s="295"/>
+      <c r="G27" s="295"/>
+      <c r="H27" s="295"/>
+      <c r="I27" s="295"/>
+      <c r="J27" s="291"/>
       <c r="K27" s="57"/>
       <c r="L27" s="57"/>
       <c r="M27" s="57"/>
@@ -11321,16 +11309,16 @@
       <c r="X27" s="57"/>
     </row>
     <row r="28" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="238"/>
-      <c r="B28" s="240"/>
-      <c r="C28" s="240"/>
-      <c r="D28" s="240"/>
-      <c r="E28" s="240"/>
-      <c r="F28" s="240"/>
-      <c r="G28" s="240"/>
-      <c r="H28" s="240"/>
-      <c r="I28" s="240"/>
-      <c r="J28" s="236"/>
+      <c r="A28" s="292"/>
+      <c r="B28" s="294"/>
+      <c r="C28" s="294"/>
+      <c r="D28" s="294"/>
+      <c r="E28" s="294"/>
+      <c r="F28" s="294"/>
+      <c r="G28" s="294"/>
+      <c r="H28" s="294"/>
+      <c r="I28" s="294"/>
+      <c r="J28" s="290"/>
       <c r="K28" s="57"/>
       <c r="L28" s="57"/>
       <c r="M28" s="57"/>
@@ -11347,16 +11335,16 @@
       <c r="X28" s="57"/>
     </row>
     <row r="29" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="239"/>
-      <c r="B29" s="241"/>
-      <c r="C29" s="241"/>
-      <c r="D29" s="241"/>
-      <c r="E29" s="241"/>
-      <c r="F29" s="241"/>
-      <c r="G29" s="241"/>
-      <c r="H29" s="241"/>
-      <c r="I29" s="241"/>
-      <c r="J29" s="237"/>
+      <c r="A29" s="293"/>
+      <c r="B29" s="295"/>
+      <c r="C29" s="295"/>
+      <c r="D29" s="295"/>
+      <c r="E29" s="295"/>
+      <c r="F29" s="295"/>
+      <c r="G29" s="295"/>
+      <c r="H29" s="295"/>
+      <c r="I29" s="295"/>
+      <c r="J29" s="291"/>
       <c r="K29" s="57"/>
       <c r="L29" s="57"/>
       <c r="M29" s="57"/>
@@ -11373,16 +11361,16 @@
       <c r="X29" s="57"/>
     </row>
     <row r="30" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="238"/>
-      <c r="B30" s="240"/>
-      <c r="C30" s="240"/>
-      <c r="D30" s="240"/>
-      <c r="E30" s="240"/>
-      <c r="F30" s="240"/>
-      <c r="G30" s="240"/>
-      <c r="H30" s="240"/>
-      <c r="I30" s="240"/>
-      <c r="J30" s="236"/>
+      <c r="A30" s="292"/>
+      <c r="B30" s="294"/>
+      <c r="C30" s="294"/>
+      <c r="D30" s="294"/>
+      <c r="E30" s="294"/>
+      <c r="F30" s="294"/>
+      <c r="G30" s="294"/>
+      <c r="H30" s="294"/>
+      <c r="I30" s="294"/>
+      <c r="J30" s="290"/>
       <c r="K30" s="57"/>
       <c r="L30" s="57"/>
       <c r="M30" s="57"/>
@@ -11399,16 +11387,16 @@
       <c r="X30" s="57"/>
     </row>
     <row r="31" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="239"/>
-      <c r="B31" s="241"/>
-      <c r="C31" s="241"/>
-      <c r="D31" s="241"/>
-      <c r="E31" s="241"/>
-      <c r="F31" s="241"/>
-      <c r="G31" s="241"/>
-      <c r="H31" s="241"/>
-      <c r="I31" s="241"/>
-      <c r="J31" s="237"/>
+      <c r="A31" s="293"/>
+      <c r="B31" s="295"/>
+      <c r="C31" s="295"/>
+      <c r="D31" s="295"/>
+      <c r="E31" s="295"/>
+      <c r="F31" s="295"/>
+      <c r="G31" s="295"/>
+      <c r="H31" s="295"/>
+      <c r="I31" s="295"/>
+      <c r="J31" s="291"/>
       <c r="K31" s="57"/>
       <c r="L31" s="57"/>
       <c r="M31" s="57"/>
@@ -11425,16 +11413,16 @@
       <c r="X31" s="57"/>
     </row>
     <row r="32" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="238"/>
-      <c r="B32" s="240"/>
-      <c r="C32" s="240"/>
-      <c r="D32" s="240"/>
-      <c r="E32" s="240"/>
-      <c r="F32" s="240"/>
-      <c r="G32" s="240"/>
-      <c r="H32" s="240"/>
-      <c r="I32" s="240"/>
-      <c r="J32" s="236"/>
+      <c r="A32" s="292"/>
+      <c r="B32" s="294"/>
+      <c r="C32" s="294"/>
+      <c r="D32" s="294"/>
+      <c r="E32" s="294"/>
+      <c r="F32" s="294"/>
+      <c r="G32" s="294"/>
+      <c r="H32" s="294"/>
+      <c r="I32" s="294"/>
+      <c r="J32" s="290"/>
       <c r="K32" s="57"/>
       <c r="L32" s="57"/>
       <c r="M32" s="57"/>
@@ -11451,16 +11439,16 @@
       <c r="X32" s="57"/>
     </row>
     <row r="33" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="239"/>
-      <c r="B33" s="241"/>
-      <c r="C33" s="241"/>
-      <c r="D33" s="241"/>
-      <c r="E33" s="241"/>
-      <c r="F33" s="241"/>
-      <c r="G33" s="241"/>
-      <c r="H33" s="241"/>
-      <c r="I33" s="241"/>
-      <c r="J33" s="237"/>
+      <c r="A33" s="293"/>
+      <c r="B33" s="295"/>
+      <c r="C33" s="295"/>
+      <c r="D33" s="295"/>
+      <c r="E33" s="295"/>
+      <c r="F33" s="295"/>
+      <c r="G33" s="295"/>
+      <c r="H33" s="295"/>
+      <c r="I33" s="295"/>
+      <c r="J33" s="291"/>
       <c r="K33" s="57"/>
       <c r="L33" s="57"/>
       <c r="M33" s="57"/>
@@ -11477,40 +11465,40 @@
       <c r="X33" s="57"/>
     </row>
     <row r="34" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="247"/>
-      <c r="B34" s="242"/>
-      <c r="C34" s="242"/>
-      <c r="D34" s="242"/>
-      <c r="E34" s="242"/>
-      <c r="F34" s="242"/>
-      <c r="G34" s="242"/>
-      <c r="H34" s="242"/>
-      <c r="I34" s="244"/>
-      <c r="J34" s="245"/>
+      <c r="A34" s="301"/>
+      <c r="B34" s="296"/>
+      <c r="C34" s="296"/>
+      <c r="D34" s="296"/>
+      <c r="E34" s="296"/>
+      <c r="F34" s="296"/>
+      <c r="G34" s="296"/>
+      <c r="H34" s="296"/>
+      <c r="I34" s="298"/>
+      <c r="J34" s="299"/>
     </row>
     <row r="35" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="239"/>
-      <c r="B35" s="249"/>
-      <c r="C35" s="249"/>
-      <c r="D35" s="249"/>
-      <c r="E35" s="249"/>
-      <c r="F35" s="249"/>
-      <c r="G35" s="249"/>
-      <c r="H35" s="249"/>
-      <c r="I35" s="249"/>
-      <c r="J35" s="250"/>
+      <c r="A35" s="293"/>
+      <c r="B35" s="303"/>
+      <c r="C35" s="303"/>
+      <c r="D35" s="303"/>
+      <c r="E35" s="303"/>
+      <c r="F35" s="303"/>
+      <c r="G35" s="303"/>
+      <c r="H35" s="303"/>
+      <c r="I35" s="303"/>
+      <c r="J35" s="304"/>
     </row>
     <row r="36" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="238"/>
-      <c r="B36" s="240"/>
-      <c r="C36" s="240"/>
-      <c r="D36" s="240"/>
-      <c r="E36" s="240"/>
-      <c r="F36" s="240"/>
-      <c r="G36" s="240"/>
-      <c r="H36" s="240"/>
-      <c r="I36" s="240"/>
-      <c r="J36" s="236"/>
+      <c r="A36" s="292"/>
+      <c r="B36" s="294"/>
+      <c r="C36" s="294"/>
+      <c r="D36" s="294"/>
+      <c r="E36" s="294"/>
+      <c r="F36" s="294"/>
+      <c r="G36" s="294"/>
+      <c r="H36" s="294"/>
+      <c r="I36" s="294"/>
+      <c r="J36" s="290"/>
       <c r="K36" s="57"/>
       <c r="L36" s="57"/>
       <c r="M36" s="57"/>
@@ -11527,16 +11515,16 @@
       <c r="X36" s="57"/>
     </row>
     <row r="37" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="239"/>
-      <c r="B37" s="241"/>
-      <c r="C37" s="241"/>
-      <c r="D37" s="241"/>
-      <c r="E37" s="241"/>
-      <c r="F37" s="241"/>
-      <c r="G37" s="241"/>
-      <c r="H37" s="241"/>
-      <c r="I37" s="241"/>
-      <c r="J37" s="237"/>
+      <c r="A37" s="293"/>
+      <c r="B37" s="295"/>
+      <c r="C37" s="295"/>
+      <c r="D37" s="295"/>
+      <c r="E37" s="295"/>
+      <c r="F37" s="295"/>
+      <c r="G37" s="295"/>
+      <c r="H37" s="295"/>
+      <c r="I37" s="295"/>
+      <c r="J37" s="291"/>
       <c r="K37" s="57"/>
       <c r="L37" s="57"/>
       <c r="M37" s="57"/>
@@ -11553,16 +11541,16 @@
       <c r="X37" s="57"/>
     </row>
     <row r="38" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="238"/>
-      <c r="B38" s="240"/>
-      <c r="C38" s="240"/>
-      <c r="D38" s="240"/>
-      <c r="E38" s="240"/>
-      <c r="F38" s="240"/>
-      <c r="G38" s="240"/>
-      <c r="H38" s="240"/>
-      <c r="I38" s="240"/>
-      <c r="J38" s="236"/>
+      <c r="A38" s="292"/>
+      <c r="B38" s="294"/>
+      <c r="C38" s="294"/>
+      <c r="D38" s="294"/>
+      <c r="E38" s="294"/>
+      <c r="F38" s="294"/>
+      <c r="G38" s="294"/>
+      <c r="H38" s="294"/>
+      <c r="I38" s="294"/>
+      <c r="J38" s="290"/>
       <c r="K38" s="57"/>
       <c r="L38" s="57"/>
       <c r="M38" s="57"/>
@@ -11579,16 +11567,16 @@
       <c r="X38" s="57"/>
     </row>
     <row r="39" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="239"/>
-      <c r="B39" s="241"/>
-      <c r="C39" s="241"/>
-      <c r="D39" s="241"/>
-      <c r="E39" s="241"/>
-      <c r="F39" s="241"/>
-      <c r="G39" s="241"/>
-      <c r="H39" s="241"/>
-      <c r="I39" s="241"/>
-      <c r="J39" s="237"/>
+      <c r="A39" s="293"/>
+      <c r="B39" s="295"/>
+      <c r="C39" s="295"/>
+      <c r="D39" s="295"/>
+      <c r="E39" s="295"/>
+      <c r="F39" s="295"/>
+      <c r="G39" s="295"/>
+      <c r="H39" s="295"/>
+      <c r="I39" s="295"/>
+      <c r="J39" s="291"/>
       <c r="K39" s="57"/>
       <c r="L39" s="57"/>
       <c r="M39" s="57"/>
@@ -11605,28 +11593,28 @@
       <c r="X39" s="57"/>
     </row>
     <row r="40" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="247"/>
-      <c r="B40" s="242"/>
-      <c r="C40" s="242"/>
-      <c r="D40" s="242"/>
-      <c r="E40" s="242"/>
-      <c r="F40" s="242"/>
-      <c r="G40" s="242"/>
-      <c r="H40" s="242"/>
-      <c r="I40" s="244"/>
-      <c r="J40" s="245"/>
+      <c r="A40" s="301"/>
+      <c r="B40" s="296"/>
+      <c r="C40" s="296"/>
+      <c r="D40" s="296"/>
+      <c r="E40" s="296"/>
+      <c r="F40" s="296"/>
+      <c r="G40" s="296"/>
+      <c r="H40" s="296"/>
+      <c r="I40" s="298"/>
+      <c r="J40" s="299"/>
     </row>
     <row r="41" spans="1:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="248"/>
-      <c r="B41" s="243"/>
-      <c r="C41" s="243"/>
-      <c r="D41" s="243"/>
-      <c r="E41" s="243"/>
-      <c r="F41" s="243"/>
-      <c r="G41" s="243"/>
-      <c r="H41" s="243"/>
-      <c r="I41" s="243"/>
-      <c r="J41" s="246"/>
+      <c r="A41" s="302"/>
+      <c r="B41" s="297"/>
+      <c r="C41" s="297"/>
+      <c r="D41" s="297"/>
+      <c r="E41" s="297"/>
+      <c r="F41" s="297"/>
+      <c r="G41" s="297"/>
+      <c r="H41" s="297"/>
+      <c r="I41" s="297"/>
+      <c r="J41" s="300"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12825,46 +12813,46 @@
   <sheetData>
     <row r="1" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="267" t="s">
+      <c r="A2" s="321" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="267"/>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
-      <c r="L2" s="267"/>
-      <c r="M2" s="267"/>
-      <c r="N2" s="267"/>
-      <c r="O2" s="267"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="321"/>
+      <c r="K2" s="321"/>
+      <c r="L2" s="321"/>
+      <c r="M2" s="321"/>
+      <c r="N2" s="321"/>
+      <c r="O2" s="321"/>
     </row>
     <row r="3" spans="1:15" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="268" t="s">
+      <c r="B3" s="322" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="268"/>
-      <c r="D3" s="268"/>
-      <c r="E3" s="268"/>
-      <c r="F3" s="268"/>
-      <c r="G3" s="268"/>
-      <c r="H3" s="268"/>
-      <c r="I3" s="268"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322"/>
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
       <c r="J3" s="75"/>
       <c r="K3" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="269" t="s">
+      <c r="L3" s="323" t="s">
         <v>101</v>
       </c>
-      <c r="M3" s="270"/>
+      <c r="M3" s="324"/>
       <c r="N3" s="74" t="s">
         <v>64</v>
       </c>
@@ -12876,63 +12864,63 @@
       <c r="A4" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="268" t="s">
+      <c r="B4" s="322" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="268"/>
-      <c r="D4" s="268"/>
-      <c r="E4" s="268"/>
-      <c r="F4" s="268"/>
-      <c r="G4" s="268"/>
-      <c r="H4" s="268"/>
-      <c r="I4" s="268"/>
+      <c r="C4" s="322"/>
+      <c r="D4" s="322"/>
+      <c r="E4" s="322"/>
+      <c r="F4" s="322"/>
+      <c r="G4" s="322"/>
+      <c r="H4" s="322"/>
+      <c r="I4" s="322"/>
       <c r="J4" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="269" t="s">
+      <c r="K4" s="323" t="s">
         <v>101</v>
       </c>
-      <c r="L4" s="270"/>
+      <c r="L4" s="324"/>
       <c r="M4" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="269" t="s">
+      <c r="N4" s="323" t="s">
         <v>102</v>
       </c>
-      <c r="O4" s="270"/>
+      <c r="O4" s="324"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="271" t="s">
+      <c r="A5" s="325" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="273" t="s">
+      <c r="B5" s="327" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="275" t="s">
+      <c r="C5" s="329" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="276"/>
-      <c r="E5" s="277"/>
-      <c r="F5" s="275" t="s">
+      <c r="D5" s="330"/>
+      <c r="E5" s="331"/>
+      <c r="F5" s="329" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="276"/>
-      <c r="H5" s="277"/>
-      <c r="I5" s="278" t="s">
+      <c r="G5" s="330"/>
+      <c r="H5" s="331"/>
+      <c r="I5" s="332" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="279"/>
-      <c r="K5" s="279"/>
-      <c r="L5" s="279"/>
-      <c r="M5" s="279"/>
-      <c r="N5" s="280"/>
-      <c r="O5" s="265" t="s">
+      <c r="J5" s="333"/>
+      <c r="K5" s="333"/>
+      <c r="L5" s="333"/>
+      <c r="M5" s="333"/>
+      <c r="N5" s="334"/>
+      <c r="O5" s="319" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="272"/>
-      <c r="B6" s="274"/>
+      <c r="A6" s="326"/>
+      <c r="B6" s="328"/>
       <c r="C6" s="76" t="s">
         <v>76</v>
       </c>
@@ -12969,7 +12957,7 @@
       <c r="N6" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="O6" s="266"/>
+      <c r="O6" s="320"/>
     </row>
     <row r="7" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="60"/>
@@ -13091,80 +13079,80 @@
       <c r="O13" s="72"/>
     </row>
     <row r="14" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="261" t="s">
+      <c r="A14" s="315" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="261"/>
-      <c r="C14" s="261"/>
-      <c r="D14" s="261"/>
-      <c r="E14" s="261"/>
-      <c r="F14" s="261"/>
-      <c r="G14" s="261"/>
-      <c r="H14" s="261"/>
-      <c r="I14" s="261"/>
-      <c r="J14" s="261"/>
-      <c r="K14" s="261"/>
-      <c r="L14" s="261"/>
-      <c r="M14" s="261"/>
-      <c r="N14" s="261"/>
-      <c r="O14" s="261"/>
+      <c r="B14" s="315"/>
+      <c r="C14" s="315"/>
+      <c r="D14" s="315"/>
+      <c r="E14" s="315"/>
+      <c r="F14" s="315"/>
+      <c r="G14" s="315"/>
+      <c r="H14" s="315"/>
+      <c r="I14" s="315"/>
+      <c r="J14" s="315"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
+      <c r="M14" s="315"/>
+      <c r="N14" s="315"/>
+      <c r="O14" s="315"/>
     </row>
     <row r="15" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="262" t="s">
+      <c r="A15" s="316" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="262"/>
-      <c r="C15" s="262"/>
-      <c r="D15" s="262"/>
-      <c r="E15" s="262"/>
-      <c r="F15" s="262"/>
-      <c r="G15" s="262"/>
-      <c r="H15" s="262"/>
-      <c r="I15" s="262"/>
-      <c r="J15" s="262"/>
-      <c r="K15" s="262"/>
-      <c r="L15" s="262"/>
-      <c r="M15" s="262"/>
-      <c r="N15" s="262"/>
-      <c r="O15" s="262"/>
+      <c r="B15" s="316"/>
+      <c r="C15" s="316"/>
+      <c r="D15" s="316"/>
+      <c r="E15" s="316"/>
+      <c r="F15" s="316"/>
+      <c r="G15" s="316"/>
+      <c r="H15" s="316"/>
+      <c r="I15" s="316"/>
+      <c r="J15" s="316"/>
+      <c r="K15" s="316"/>
+      <c r="L15" s="316"/>
+      <c r="M15" s="316"/>
+      <c r="N15" s="316"/>
+      <c r="O15" s="316"/>
     </row>
     <row r="16" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="262" t="s">
+      <c r="A16" s="316" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="262"/>
-      <c r="C16" s="262"/>
-      <c r="D16" s="262"/>
-      <c r="E16" s="262"/>
-      <c r="F16" s="262"/>
-      <c r="G16" s="262"/>
-      <c r="H16" s="262"/>
-      <c r="I16" s="262"/>
-      <c r="J16" s="262"/>
-      <c r="K16" s="262"/>
-      <c r="L16" s="262"/>
-      <c r="M16" s="262"/>
-      <c r="N16" s="262"/>
-      <c r="O16" s="262"/>
+      <c r="B16" s="316"/>
+      <c r="C16" s="316"/>
+      <c r="D16" s="316"/>
+      <c r="E16" s="316"/>
+      <c r="F16" s="316"/>
+      <c r="G16" s="316"/>
+      <c r="H16" s="316"/>
+      <c r="I16" s="316"/>
+      <c r="J16" s="316"/>
+      <c r="K16" s="316"/>
+      <c r="L16" s="316"/>
+      <c r="M16" s="316"/>
+      <c r="N16" s="316"/>
+      <c r="O16" s="316"/>
     </row>
     <row r="17" spans="1:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="262" t="s">
+      <c r="A17" s="316" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="262"/>
-      <c r="C17" s="262"/>
-      <c r="D17" s="262"/>
-      <c r="E17" s="262"/>
-      <c r="F17" s="262"/>
-      <c r="G17" s="262"/>
-      <c r="H17" s="262"/>
-      <c r="I17" s="262"/>
-      <c r="J17" s="262"/>
-      <c r="K17" s="262"/>
-      <c r="L17" s="262"/>
-      <c r="M17" s="262"/>
-      <c r="N17" s="262"/>
-      <c r="O17" s="262"/>
+      <c r="B17" s="316"/>
+      <c r="C17" s="316"/>
+      <c r="D17" s="316"/>
+      <c r="E17" s="316"/>
+      <c r="F17" s="316"/>
+      <c r="G17" s="316"/>
+      <c r="H17" s="316"/>
+      <c r="I17" s="316"/>
+      <c r="J17" s="316"/>
+      <c r="K17" s="316"/>
+      <c r="L17" s="316"/>
+      <c r="M17" s="316"/>
+      <c r="N17" s="316"/>
+      <c r="O17" s="316"/>
     </row>
     <row r="18" spans="1:15" ht="32.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59"/>
@@ -13174,20 +13162,20 @@
       <c r="E18" s="59"/>
       <c r="F18" s="59"/>
       <c r="G18" s="59"/>
-      <c r="H18" s="263" t="s">
+      <c r="H18" s="317" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="263"/>
+      <c r="I18" s="317"/>
       <c r="J18" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="K18" s="264" t="s">
+      <c r="K18" s="318" t="s">
         <v>99</v>
       </c>
-      <c r="L18" s="264"/>
-      <c r="M18" s="264"/>
-      <c r="N18" s="264"/>
-      <c r="O18" s="264"/>
+      <c r="L18" s="318"/>
+      <c r="M18" s="318"/>
+      <c r="N18" s="318"/>
+      <c r="O18" s="318"/>
     </row>
     <row r="19" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="73"/>
@@ -13197,18 +13185,18 @@
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="73"/>
-      <c r="H19" s="259"/>
-      <c r="I19" s="259"/>
+      <c r="H19" s="313"/>
+      <c r="I19" s="313"/>
       <c r="J19" s="73"/>
       <c r="K19" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="L19" s="260" t="s">
+      <c r="L19" s="314" t="s">
         <v>98</v>
       </c>
-      <c r="M19" s="260"/>
-      <c r="N19" s="260"/>
-      <c r="O19" s="260"/>
+      <c r="M19" s="314"/>
+      <c r="N19" s="314"/>
+      <c r="O19" s="314"/>
     </row>
   </sheetData>
   <mergeCells count="20">
